--- a/2020-sgfdevs-journal.xlsx
+++ b/2020-sgfdevs-journal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="538">
   <si>
     <t>Date</t>
   </si>
@@ -1544,10 +1544,91 @@
     <t>AUTO</t>
   </si>
   <si>
+    <t>Partial Refund</t>
+  </si>
+  <si>
+    <t>03/03/2020</t>
+  </si>
+  <si>
+    <t>03/04/2020</t>
+  </si>
+  <si>
+    <t>Houlihans Restaurant</t>
+  </si>
+  <si>
+    <t>Speaker Dinner for Method Conference</t>
+  </si>
+  <si>
+    <t>Food, Drinks, Sales Tax</t>
+  </si>
+  <si>
+    <t>Method:Method Speaker Dinner</t>
+  </si>
+  <si>
+    <t>Gratuity (~19.5% of ~$400)</t>
+  </si>
+  <si>
+    <t>03/05/2020</t>
+  </si>
+  <si>
+    <t>Food Gratuity for Method Conference ($3185 at 19.17%)</t>
+  </si>
+  <si>
+    <t>Bar Gratuity for Method Conference ($523 at 19.12%)</t>
+  </si>
+  <si>
+    <t>Josiah Mann</t>
+  </si>
+  <si>
+    <t>Attendee Josiah Mann</t>
+  </si>
+  <si>
+    <t>03/06/2020</t>
+  </si>
+  <si>
+    <t>Hosted Bar</t>
+  </si>
+  <si>
+    <t>Tito 100 @ 3%</t>
+  </si>
+  <si>
+    <t>03/09/2020</t>
+  </si>
+  <si>
+    <t>03/11/2020</t>
+  </si>
+  <si>
+    <t>271567A</t>
+  </si>
+  <si>
+    <t>Hilton Garden Inn Springfield</t>
+  </si>
+  <si>
+    <t>Hotel Rooms for Method Conf Speakers - 8 nights @ 143.77 (126 guest room + 6.30 occupancy tax + 11.47 state tax)</t>
+  </si>
+  <si>
+    <t>03/12/2020</t>
+  </si>
+  <si>
+    <t>03/25/2020</t>
+  </si>
+  <si>
+    <t>04/01/2020</t>
+  </si>
+  <si>
+    <t>04/03/2020</t>
+  </si>
+  <si>
+    <t>04/05/2020</t>
+  </si>
+  <si>
+    <t>04/06/2020</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Monday, Mar 02, 2020 08:01:02 PM GMT-8</t>
+    <t>Saturday, Apr 11, 2020 09:30:24 AM GMT-7</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -1556,7 +1637,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January 1 - March 2, 2020</t>
+    <t>January 1 - April 11, 2020</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1767,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1700,7 +1781,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1714,7 +1795,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -15473,34 +15554,1131 @@
       </c>
     </row>
     <row r="1017">
-      <c r="A1017" t="s" s="6">
+      <c r="B1017" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C1017" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1017" s="2"/>
+      <c r="E1017" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1017" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="G1017" s="2"/>
+      <c r="H1017" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1017" s="3"/>
+      <c r="J1017" t="n" s="4">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="B1018" s="2"/>
+      <c r="C1018" s="2"/>
+      <c r="D1018" s="2"/>
+      <c r="E1018" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1018" s="2"/>
+      <c r="G1018" s="2"/>
+      <c r="H1018" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1018" t="n" s="4">
+        <v>6.37</v>
+      </c>
+      <c r="J1018" s="3"/>
+    </row>
+    <row r="1019">
+      <c r="I1019" t="n" s="5">
+        <v>6.37</v>
+      </c>
+      <c r="J1019" t="n" s="5">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="B1021" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C1021" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D1021" s="2"/>
+      <c r="E1021" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1021" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="G1021" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="I1017" t="n" s="5">
-        <v>89657.15</v>
-      </c>
-      <c r="J1017" t="n" s="5">
-        <v>89657.15</v>
-      </c>
-    </row>
-    <row r="1020">
-      <c r="A1020" s="7" t="s">
+      <c r="H1021" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1021" t="n" s="4">
+        <v>6.26</v>
+      </c>
+      <c r="J1021" s="3"/>
+    </row>
+    <row r="1022">
+      <c r="B1022" s="2"/>
+      <c r="C1022" s="2"/>
+      <c r="D1022" s="2"/>
+      <c r="E1022" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1022" s="2"/>
+      <c r="G1022" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="H1022" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="I1022" s="3"/>
+      <c r="J1022" t="n" s="4">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="I1023" t="n" s="5">
+        <v>6.26</v>
+      </c>
+      <c r="J1023" t="n" s="5">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="B1025" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="B1020"/>
-      <c r="C1020"/>
-      <c r="D1020"/>
-      <c r="E1020"/>
-      <c r="F1020"/>
-      <c r="G1020"/>
-      <c r="H1020"/>
-      <c r="I1020"/>
-      <c r="J1020"/>
+      <c r="C1025" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1025" s="2"/>
+      <c r="E1025" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1025" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G1025" t="n" s="2">
+        <v>3.98900485E8</v>
+      </c>
+      <c r="H1025" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1025" s="3"/>
+      <c r="J1025" t="n" s="4">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="B1026" s="2"/>
+      <c r="C1026" s="2"/>
+      <c r="D1026" s="2"/>
+      <c r="E1026" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1026" s="2"/>
+      <c r="G1026" t="n" s="2">
+        <v>3.98900485E8</v>
+      </c>
+      <c r="H1026" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1026" t="n" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="J1026" s="3"/>
+    </row>
+    <row r="1027">
+      <c r="I1027" t="n" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="J1027" t="n" s="5">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="B1029" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C1029" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1029" s="2"/>
+      <c r="E1029" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1029" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="G1029" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="H1029" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1029" s="3"/>
+      <c r="J1029" t="n" s="4">
+        <v>511.41</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="B1030" s="2"/>
+      <c r="C1030" s="2"/>
+      <c r="D1030" s="2"/>
+      <c r="E1030" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1030" s="2"/>
+      <c r="G1030" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="H1030" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="I1030" t="n" s="4">
+        <v>433.41</v>
+      </c>
+      <c r="J1030" s="3"/>
+    </row>
+    <row r="1031">
+      <c r="B1031" s="2"/>
+      <c r="C1031" s="2"/>
+      <c r="D1031" s="2"/>
+      <c r="E1031" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1031" s="2"/>
+      <c r="G1031" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="H1031" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="I1031" t="n" s="4">
+        <v>78.0</v>
+      </c>
+      <c r="J1031" s="3"/>
+    </row>
+    <row r="1032">
+      <c r="I1032" t="n" s="5">
+        <v>511.41</v>
+      </c>
+      <c r="J1032" t="n" s="5">
+        <v>511.41</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="B1034" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C1034" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1034" s="2"/>
+      <c r="E1034" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1034" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1034" s="2"/>
+      <c r="H1034" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1034" s="3"/>
+      <c r="J1034" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="B1035" s="2"/>
+      <c r="C1035" s="2"/>
+      <c r="D1035" s="2"/>
+      <c r="E1035" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1035" s="2"/>
+      <c r="G1035" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H1035" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1035" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1035" s="3"/>
+    </row>
+    <row r="1036">
+      <c r="I1036" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1036" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="B1038" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C1038" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1038" s="2"/>
+      <c r="E1038" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1038" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="G1038" s="2"/>
+      <c r="H1038" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1038" s="3"/>
+      <c r="J1038" t="n" s="4">
+        <v>710.65</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="B1039" s="2"/>
+      <c r="C1039" s="2"/>
+      <c r="D1039" s="2"/>
+      <c r="E1039" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1039" s="2"/>
+      <c r="G1039" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="H1039" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="I1039" t="n" s="4">
+        <v>610.65</v>
+      </c>
+      <c r="J1039" s="3"/>
+    </row>
+    <row r="1040">
+      <c r="B1040" s="2"/>
+      <c r="C1040" s="2"/>
+      <c r="D1040" s="2"/>
+      <c r="E1040" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1040" s="2"/>
+      <c r="G1040" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="H1040" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="I1040" t="n" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="J1040" s="3"/>
+    </row>
+    <row r="1041">
+      <c r="I1041" t="n" s="5">
+        <v>710.65</v>
+      </c>
+      <c r="J1041" t="n" s="5">
+        <v>710.65</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="B1043" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C1043" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D1043" t="n" s="2">
+        <v>1178.0</v>
+      </c>
+      <c r="E1043" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1043" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="G1043" s="2"/>
+      <c r="H1043" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I1043" t="n" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="J1043" s="3"/>
+    </row>
+    <row r="1044">
+      <c r="B1044" s="2"/>
+      <c r="C1044" s="2"/>
+      <c r="D1044" s="2"/>
+      <c r="E1044" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1044" s="2"/>
+      <c r="G1044" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="H1044" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I1044" s="3"/>
+      <c r="J1044" t="n" s="4">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="I1045" t="n" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="J1045" t="n" s="5">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="B1047" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C1047" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1047" s="2"/>
+      <c r="E1047" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1047" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1047" s="2"/>
+      <c r="H1047" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1047" s="3"/>
+      <c r="J1047" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="B1048" s="2"/>
+      <c r="C1048" s="2"/>
+      <c r="D1048" s="2"/>
+      <c r="E1048" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1048" s="2"/>
+      <c r="G1048" s="2"/>
+      <c r="H1048" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1048" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1048" s="3"/>
+    </row>
+    <row r="1049">
+      <c r="I1049" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1049" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="B1051" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C1051" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1051" s="2"/>
+      <c r="E1051" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1051" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="G1051" s="2"/>
+      <c r="H1051" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1051" s="3"/>
+      <c r="J1051" t="n" s="4">
+        <v>565.36</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="B1052" s="2"/>
+      <c r="C1052" s="2"/>
+      <c r="D1052" s="2"/>
+      <c r="E1052" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1052" s="2"/>
+      <c r="G1052" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="H1052" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="I1052" t="n" s="4">
+        <v>523.0</v>
+      </c>
+      <c r="J1052" s="3"/>
+    </row>
+    <row r="1053">
+      <c r="B1053" s="2"/>
+      <c r="C1053" s="2"/>
+      <c r="D1053" s="2"/>
+      <c r="E1053" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1053" s="2"/>
+      <c r="G1053" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="H1053" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="I1053" t="n" s="4">
+        <v>42.36</v>
+      </c>
+      <c r="J1053" s="3"/>
+    </row>
+    <row r="1054">
+      <c r="I1054" t="n" s="5">
+        <v>565.36</v>
+      </c>
+      <c r="J1054" t="n" s="5">
+        <v>565.36</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="B1056" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C1056" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1056" s="2"/>
+      <c r="E1056" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1056" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="G1056" s="2"/>
+      <c r="H1056" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I1056" s="3"/>
+      <c r="J1056" t="n" s="4">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="B1057" s="2"/>
+      <c r="C1057" s="2"/>
+      <c r="D1057" s="2"/>
+      <c r="E1057" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1057" s="2"/>
+      <c r="G1057" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="H1057" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="I1057" t="n" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="J1057" s="3"/>
+    </row>
+    <row r="1058">
+      <c r="B1058" s="2"/>
+      <c r="C1058" s="2"/>
+      <c r="D1058" s="2"/>
+      <c r="E1058" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1058" s="2"/>
+      <c r="G1058" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="H1058" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="I1058" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="J1058" s="3"/>
+    </row>
+    <row r="1059">
+      <c r="B1059" s="2"/>
+      <c r="C1059" s="2"/>
+      <c r="D1059" s="2"/>
+      <c r="E1059" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1059" s="2"/>
+      <c r="G1059" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="H1059" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1059" t="n" s="4">
+        <v>93.8</v>
+      </c>
+      <c r="J1059" s="3"/>
+    </row>
+    <row r="1060">
+      <c r="I1060" t="n" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="J1060" t="n" s="5">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="B1062" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C1062" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1062" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="E1062" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1062" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="G1062" s="2"/>
+      <c r="H1062" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1062" s="3"/>
+      <c r="J1062" t="n" s="4">
+        <v>1276.01</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="B1063" s="2"/>
+      <c r="C1063" s="2"/>
+      <c r="D1063" s="2"/>
+      <c r="E1063" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1063" s="2"/>
+      <c r="G1063" s="2"/>
+      <c r="H1063" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1063" t="n" s="4">
+        <v>1276.01</v>
+      </c>
+      <c r="J1063" s="3"/>
+    </row>
+    <row r="1064">
+      <c r="I1064" t="n" s="5">
+        <v>1276.01</v>
+      </c>
+      <c r="J1064" t="n" s="5">
+        <v>1276.01</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="B1066" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C1066" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1066" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="E1066" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1066" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="G1066" s="2"/>
+      <c r="H1066" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1066" s="3"/>
+      <c r="J1066" t="n" s="4">
+        <v>1280.1</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="B1067" s="2"/>
+      <c r="C1067" s="2"/>
+      <c r="D1067" s="2"/>
+      <c r="E1067" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1067" s="2"/>
+      <c r="G1067" s="2"/>
+      <c r="H1067" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1067" t="n" s="4">
+        <v>1280.1</v>
+      </c>
+      <c r="J1067" s="3"/>
+    </row>
+    <row r="1068">
+      <c r="I1068" t="n" s="5">
+        <v>1280.1</v>
+      </c>
+      <c r="J1068" t="n" s="5">
+        <v>1280.1</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="B1070" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C1070" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1070" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="E1070" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1070" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="G1070" s="2"/>
+      <c r="H1070" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1070" s="3"/>
+      <c r="J1070" t="n" s="4">
+        <v>1150.16</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="B1071" s="2"/>
+      <c r="C1071" s="2"/>
+      <c r="D1071" s="2"/>
+      <c r="E1071" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1071" s="2"/>
+      <c r="G1071" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="H1071" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="I1071" t="n" s="4">
+        <v>1150.16</v>
+      </c>
+      <c r="J1071" s="3"/>
+    </row>
+    <row r="1072">
+      <c r="I1072" t="n" s="5">
+        <v>1150.16</v>
+      </c>
+      <c r="J1072" t="n" s="5">
+        <v>1150.16</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="B1074" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C1074" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1074" s="2"/>
+      <c r="E1074" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1074" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="G1074" s="2"/>
+      <c r="H1074" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1074" s="3"/>
+      <c r="J1074" t="n" s="4">
+        <v>1150.16</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="B1075" s="2"/>
+      <c r="C1075" s="2"/>
+      <c r="D1075" s="2"/>
+      <c r="E1075" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1075" s="2"/>
+      <c r="G1075" s="2"/>
+      <c r="H1075" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1075" t="n" s="4">
+        <v>1150.16</v>
+      </c>
+      <c r="J1075" s="3"/>
+    </row>
+    <row r="1076">
+      <c r="I1076" t="n" s="5">
+        <v>1150.16</v>
+      </c>
+      <c r="J1076" t="n" s="5">
+        <v>1150.16</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="B1078" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C1078" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="D1078" s="2"/>
+      <c r="E1078" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1078" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="G1078" s="2"/>
+      <c r="H1078" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1078" t="n" s="4">
+        <v>900.0</v>
+      </c>
+      <c r="J1078" s="3"/>
+    </row>
+    <row r="1079">
+      <c r="B1079" s="2"/>
+      <c r="C1079" s="2"/>
+      <c r="D1079" s="2"/>
+      <c r="E1079" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1079" s="2"/>
+      <c r="G1079" s="2"/>
+      <c r="H1079" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I1079" s="3"/>
+      <c r="J1079" t="n" s="4">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="I1080" t="n" s="5">
+        <v>900.0</v>
+      </c>
+      <c r="J1080" t="n" s="5">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="B1082" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C1082" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1082" t="n" s="2">
+        <v>7681.0</v>
+      </c>
+      <c r="E1082" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1082" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1082" s="2"/>
+      <c r="H1082" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1082" s="3"/>
+      <c r="J1082" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="B1083" s="2"/>
+      <c r="C1083" s="2"/>
+      <c r="D1083" s="2"/>
+      <c r="E1083" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1083" s="2"/>
+      <c r="G1083" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1083" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1083" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1083" s="3"/>
+    </row>
+    <row r="1084">
+      <c r="I1084" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1084" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="B1086" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C1086" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1086" s="2"/>
+      <c r="E1086" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1086" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G1086" t="n" s="2">
+        <v>4.14747233E8</v>
+      </c>
+      <c r="H1086" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1086" s="3"/>
+      <c r="J1086" t="n" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="B1087" s="2"/>
+      <c r="C1087" s="2"/>
+      <c r="D1087" s="2"/>
+      <c r="E1087" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1087" s="2"/>
+      <c r="G1087" t="n" s="2">
+        <v>4.14747233E8</v>
+      </c>
+      <c r="H1087" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1087" t="n" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J1087" s="3"/>
+    </row>
+    <row r="1088">
+      <c r="I1088" t="n" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J1088" t="n" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="B1090" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C1090" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1090" s="2"/>
+      <c r="E1090" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1090" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1090" s="2"/>
+      <c r="H1090" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1090" s="3"/>
+      <c r="J1090" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="B1091" s="2"/>
+      <c r="C1091" s="2"/>
+      <c r="D1091" s="2"/>
+      <c r="E1091" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1091" s="2"/>
+      <c r="G1091" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H1091" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1091" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1091" s="3"/>
+    </row>
+    <row r="1092">
+      <c r="I1092" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1092" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="B1094" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C1094" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="D1094" s="2"/>
+      <c r="E1094" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1094" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="G1094" s="2"/>
+      <c r="H1094" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1094" t="n" s="4">
+        <v>450.0</v>
+      </c>
+      <c r="J1094" s="3"/>
+    </row>
+    <row r="1095">
+      <c r="B1095" s="2"/>
+      <c r="C1095" s="2"/>
+      <c r="D1095" s="2"/>
+      <c r="E1095" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1095" s="2"/>
+      <c r="G1095" s="2"/>
+      <c r="H1095" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I1095" s="3"/>
+      <c r="J1095" t="n" s="4">
+        <v>450.0</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="I1096" t="n" s="5">
+        <v>450.0</v>
+      </c>
+      <c r="J1096" t="n" s="5">
+        <v>450.0</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="B1098" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C1098" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1098" s="2"/>
+      <c r="E1098" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1098" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1098" s="2"/>
+      <c r="H1098" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1098" s="3"/>
+      <c r="J1098" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="B1099" s="2"/>
+      <c r="C1099" s="2"/>
+      <c r="D1099" s="2"/>
+      <c r="E1099" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1099" s="2"/>
+      <c r="G1099" s="2"/>
+      <c r="H1099" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1099" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1099" s="3"/>
+    </row>
+    <row r="1100">
+      <c r="I1100" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1100" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="s" s="6">
+        <v>533</v>
+      </c>
+      <c r="I1102" t="n" s="5">
+        <v>97964.82</v>
+      </c>
+      <c r="J1102" t="n" s="5">
+        <v>97964.82</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1105"/>
+      <c r="C1105"/>
+      <c r="D1105"/>
+      <c r="E1105"/>
+      <c r="F1105"/>
+      <c r="G1105"/>
+      <c r="H1105"/>
+      <c r="I1105"/>
+      <c r="J1105"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1017"/>
-    <mergeCell ref="A1020:J1020"/>
+    <mergeCell ref="A1102"/>
+    <mergeCell ref="A1105:J1105"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>

--- a/2020-sgfdevs-journal.xlsx
+++ b/2020-sgfdevs-journal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="556">
   <si>
     <t>Date</t>
   </si>
@@ -1625,10 +1625,64 @@
     <t>04/06/2020</t>
   </si>
   <si>
+    <t>04/08/2020</t>
+  </si>
+  <si>
+    <t>Brad Hill Design Group</t>
+  </si>
+  <si>
+    <t>DEVS Event Website Responsive Design (Initial Payment 50%)</t>
+  </si>
+  <si>
+    <t>Method:Method Design</t>
+  </si>
+  <si>
+    <t>04/15/2020</t>
+  </si>
+  <si>
+    <t>Meetup.com</t>
+  </si>
+  <si>
+    <t>Organizer Subscription 04/14-10/14</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Internal Revenue Service</t>
+  </si>
+  <si>
+    <t>IRS Nonprofit 501(c)(6) Application Fee</t>
+  </si>
+  <si>
+    <t>Devs:Devs Taxes &amp; Licenses</t>
+  </si>
+  <si>
+    <t>04/16/2020</t>
+  </si>
+  <si>
+    <t>04/30/2020</t>
+  </si>
+  <si>
+    <t>sgfcovidsupport.org</t>
+  </si>
+  <si>
+    <t>05/01/2020</t>
+  </si>
+  <si>
+    <t>05/04/2020</t>
+  </si>
+  <si>
+    <t>AMAZON WEB SERVICES DBT CRD 2025 05/03/20 DBEYSGV7</t>
+  </si>
+  <si>
+    <t>05/05/2020</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Saturday, Apr 11, 2020 09:30:24 AM GMT-7</t>
+    <t>Wednesday, May 06, 2020 08:30:25 AM GMT-7</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -1637,7 +1691,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January 1 - April 11, 2020</t>
+    <t>January 1 - May 6, 2020</t>
   </si>
 </sst>
 </file>
@@ -1761,13 +1815,13 @@
     <col min="6" max="6" width="32.65625" customWidth="true"/>
     <col min="7" max="7" width="86.796875" customWidth="true"/>
     <col min="8" max="8" width="30.9375" customWidth="true"/>
-    <col min="9" max="9" width="10.3125" customWidth="true"/>
-    <col min="10" max="10" width="10.3125" customWidth="true"/>
+    <col min="9" max="9" width="11.171875" customWidth="true"/>
+    <col min="10" max="10" width="11.171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1781,7 +1835,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1795,7 +1849,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -16651,34 +16705,534 @@
       </c>
     </row>
     <row r="1102">
-      <c r="A1102" t="s" s="6">
+      <c r="B1102" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="I1102" t="n" s="5">
-        <v>97964.82</v>
-      </c>
-      <c r="J1102" t="n" s="5">
-        <v>97964.82</v>
-      </c>
-    </row>
-    <row r="1105">
-      <c r="A1105" s="7" t="s">
+      <c r="C1102" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1102" t="n" s="2">
+        <v>333.0</v>
+      </c>
+      <c r="E1102" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1102" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="B1105"/>
-      <c r="C1105"/>
-      <c r="D1105"/>
-      <c r="E1105"/>
-      <c r="F1105"/>
-      <c r="G1105"/>
-      <c r="H1105"/>
-      <c r="I1105"/>
-      <c r="J1105"/>
+      <c r="G1102" s="2"/>
+      <c r="H1102" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1102" s="3"/>
+      <c r="J1102" t="n" s="4">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="B1103" s="2"/>
+      <c r="C1103" s="2"/>
+      <c r="D1103" s="2"/>
+      <c r="E1103" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1103" s="2"/>
+      <c r="G1103" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="H1103" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="I1103" t="n" s="4">
+        <v>1000.0</v>
+      </c>
+      <c r="J1103" s="3"/>
+    </row>
+    <row r="1104">
+      <c r="I1104" t="n" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="J1104" t="n" s="5">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="B1106" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C1106" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1106" s="2"/>
+      <c r="E1106" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1106" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="G1106" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="H1106" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1106" s="3"/>
+      <c r="J1106" t="n" s="4">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="B1107" s="2"/>
+      <c r="C1107" s="2"/>
+      <c r="D1107" s="2"/>
+      <c r="E1107" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1107" s="2"/>
+      <c r="G1107" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="H1107" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1107" t="n" s="4">
+        <v>98.94</v>
+      </c>
+      <c r="J1107" s="3"/>
+    </row>
+    <row r="1108">
+      <c r="I1108" t="n" s="5">
+        <v>98.94</v>
+      </c>
+      <c r="J1108" t="n" s="5">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="B1110" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C1110" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="D1110" s="2"/>
+      <c r="E1110" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1110" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="G1110" s="2"/>
+      <c r="H1110" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1110" s="3"/>
+      <c r="J1110" t="n" s="4">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="B1111" s="2"/>
+      <c r="C1111" s="2"/>
+      <c r="D1111" s="2"/>
+      <c r="E1111" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1111" s="2"/>
+      <c r="G1111" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="H1111" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="I1111" t="n" s="4">
+        <v>600.0</v>
+      </c>
+      <c r="J1111" s="3"/>
+    </row>
+    <row r="1112">
+      <c r="I1112" t="n" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="J1112" t="n" s="5">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="B1114" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C1114" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1114" s="2"/>
+      <c r="E1114" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1114" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1114" s="2"/>
+      <c r="H1114" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1114" s="3"/>
+      <c r="J1114" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="B1115" s="2"/>
+      <c r="C1115" s="2"/>
+      <c r="D1115" s="2"/>
+      <c r="E1115" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1115" s="2"/>
+      <c r="G1115" s="2"/>
+      <c r="H1115" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1115" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1115" s="3"/>
+    </row>
+    <row r="1116">
+      <c r="I1116" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1116" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="B1118" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C1118" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1118" s="2"/>
+      <c r="E1118" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1118" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="G1118" s="2"/>
+      <c r="H1118" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1118" s="3"/>
+      <c r="J1118" t="n" s="4">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="B1119" s="2"/>
+      <c r="C1119" s="2"/>
+      <c r="D1119" s="2"/>
+      <c r="E1119" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1119" s="2"/>
+      <c r="G1119" s="2"/>
+      <c r="H1119" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1119" t="n" s="4">
+        <v>1000.0</v>
+      </c>
+      <c r="J1119" s="3"/>
+    </row>
+    <row r="1120">
+      <c r="I1120" t="n" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="J1120" t="n" s="5">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="B1122" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C1122" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1122" s="2"/>
+      <c r="E1122" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1122" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="G1122" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="H1122" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1122" s="3"/>
+      <c r="J1122" t="n" s="4">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="B1123" s="2"/>
+      <c r="C1123" s="2"/>
+      <c r="D1123" s="2"/>
+      <c r="E1123" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1123" s="2"/>
+      <c r="G1123" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="H1123" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1123" t="n" s="4">
+        <v>12.98</v>
+      </c>
+      <c r="J1123" s="3"/>
+    </row>
+    <row r="1124">
+      <c r="I1124" t="n" s="5">
+        <v>12.98</v>
+      </c>
+      <c r="J1124" t="n" s="5">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="B1126" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C1126" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1126" s="2"/>
+      <c r="E1126" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1126" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1126" s="2"/>
+      <c r="H1126" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1126" s="3"/>
+      <c r="J1126" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="B1127" s="2"/>
+      <c r="C1127" s="2"/>
+      <c r="D1127" s="2"/>
+      <c r="E1127" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1127" s="2"/>
+      <c r="G1127" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1127" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1127" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1127" s="3"/>
+    </row>
+    <row r="1128">
+      <c r="I1128" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1128" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="B1130" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="C1130" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1130" s="2"/>
+      <c r="E1130" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1130" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G1130" s="2"/>
+      <c r="H1130" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1130" s="3"/>
+      <c r="J1130" t="n" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="B1131" s="2"/>
+      <c r="C1131" s="2"/>
+      <c r="D1131" s="2"/>
+      <c r="E1131" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1131" s="2"/>
+      <c r="G1131" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="H1131" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1131" t="n" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J1131" s="3"/>
+    </row>
+    <row r="1132">
+      <c r="I1132" t="n" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J1132" t="n" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="B1134" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C1134" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1134" s="2"/>
+      <c r="E1134" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1134" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1134" s="2"/>
+      <c r="H1134" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1134" s="3"/>
+      <c r="J1134" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="B1135" s="2"/>
+      <c r="C1135" s="2"/>
+      <c r="D1135" s="2"/>
+      <c r="E1135" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1135" s="2"/>
+      <c r="G1135" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H1135" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1135" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1135" s="3"/>
+    </row>
+    <row r="1136">
+      <c r="I1136" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1136" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="B1138" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C1138" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1138" s="2"/>
+      <c r="E1138" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1138" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1138" s="2"/>
+      <c r="H1138" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1138" s="3"/>
+      <c r="J1138" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="B1139" s="2"/>
+      <c r="C1139" s="2"/>
+      <c r="D1139" s="2"/>
+      <c r="E1139" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1139" s="2"/>
+      <c r="G1139" s="2"/>
+      <c r="H1139" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1139" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1139" s="3"/>
+    </row>
+    <row r="1140">
+      <c r="I1140" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1140" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="s" s="6">
+        <v>551</v>
+      </c>
+      <c r="I1142" t="n" s="5">
+        <v>100757.34</v>
+      </c>
+      <c r="J1142" t="n" s="5">
+        <v>100757.34</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1145"/>
+      <c r="C1145"/>
+      <c r="D1145"/>
+      <c r="E1145"/>
+      <c r="F1145"/>
+      <c r="G1145"/>
+      <c r="H1145"/>
+      <c r="I1145"/>
+      <c r="J1145"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1102"/>
-    <mergeCell ref="A1105:J1105"/>
+    <mergeCell ref="A1142"/>
+    <mergeCell ref="A1145:J1145"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>

--- a/2020-sgfdevs-journal.xlsx
+++ b/2020-sgfdevs-journal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="557">
   <si>
     <t>Date</t>
   </si>
@@ -1679,10 +1679,13 @@
     <t>05/05/2020</t>
   </si>
   <si>
+    <t>05/07/2020</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Wednesday, May 06, 2020 08:30:25 AM GMT-7</t>
+    <t>Monday, Jun 08, 2020 09:22:27 AM GMT-7</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -1691,7 +1694,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January 1 - May 6, 2020</t>
+    <t>January - May, 2020</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1835,7 +1838,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1849,7 +1852,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -17205,34 +17208,82 @@
       </c>
     </row>
     <row r="1142">
-      <c r="A1142" t="s" s="6">
+      <c r="B1142" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="I1142" t="n" s="5">
-        <v>100757.34</v>
-      </c>
-      <c r="J1142" t="n" s="5">
-        <v>100757.34</v>
-      </c>
-    </row>
-    <row r="1145">
-      <c r="A1145" s="7" t="s">
+      <c r="C1142" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1142" s="2"/>
+      <c r="E1142" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1142" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1142" s="2"/>
+      <c r="H1142" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1142" s="3"/>
+      <c r="J1142" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="B1143" s="2"/>
+      <c r="C1143" s="2"/>
+      <c r="D1143" s="2"/>
+      <c r="E1143" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1143" s="2"/>
+      <c r="G1143" s="2"/>
+      <c r="H1143" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1143" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1143" s="3"/>
+    </row>
+    <row r="1144">
+      <c r="I1144" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1144" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="s" s="6">
         <v>552</v>
       </c>
-      <c r="B1145"/>
-      <c r="C1145"/>
-      <c r="D1145"/>
-      <c r="E1145"/>
-      <c r="F1145"/>
-      <c r="G1145"/>
-      <c r="H1145"/>
-      <c r="I1145"/>
-      <c r="J1145"/>
+      <c r="I1146" t="n" s="5">
+        <v>100777.34</v>
+      </c>
+      <c r="J1146" t="n" s="5">
+        <v>100777.34</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1149"/>
+      <c r="C1149"/>
+      <c r="D1149"/>
+      <c r="E1149"/>
+      <c r="F1149"/>
+      <c r="G1149"/>
+      <c r="H1149"/>
+      <c r="I1149"/>
+      <c r="J1149"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1142"/>
-    <mergeCell ref="A1145:J1145"/>
+    <mergeCell ref="A1146"/>
+    <mergeCell ref="A1149:J1149"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>

--- a/2020-sgfdevs-journal.xlsx
+++ b/2020-sgfdevs-journal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="567">
   <si>
     <t>Date</t>
   </si>
@@ -1634,7 +1634,7 @@
     <t>DEVS Event Website Responsive Design (Initial Payment 50%)</t>
   </si>
   <si>
-    <t>Method:Method Design</t>
+    <t>Devs:Devs Design</t>
   </si>
   <si>
     <t>04/15/2020</t>
@@ -1682,10 +1682,40 @@
     <t>05/07/2020</t>
   </si>
   <si>
+    <t>06/01/2020</t>
+  </si>
+  <si>
+    <t>06/03/2020</t>
+  </si>
+  <si>
+    <t>AMAZON WEB SERVICES DBT CRD 1557 06/02/20 DBEWR7LH</t>
+  </si>
+  <si>
+    <t>06/05/2020</t>
+  </si>
+  <si>
+    <t>06/08/2020</t>
+  </si>
+  <si>
+    <t>06/14/2020</t>
+  </si>
+  <si>
+    <t>DEVS Event Website Responsive Design (Final Payment 50%)</t>
+  </si>
+  <si>
+    <t>06/15/2020</t>
+  </si>
+  <si>
+    <t>06/23/2020</t>
+  </si>
+  <si>
+    <t>Paid via QuickBooks Payments: Payment ID PL0032393209</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Monday, Jun 08, 2020 09:22:27 AM GMT-7</t>
+    <t>Tuesday, Jul 07, 2020 04:00:00 PM GMT-7</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -1694,7 +1724,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January - May, 2020</t>
+    <t>January - June, 2020</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1854,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1838,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1852,7 +1882,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -17256,34 +17286,486 @@
       </c>
     </row>
     <row r="1146">
-      <c r="A1146" t="s" s="6">
+      <c r="B1146" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="I1146" t="n" s="5">
-        <v>100777.34</v>
-      </c>
-      <c r="J1146" t="n" s="5">
-        <v>100777.34</v>
-      </c>
-    </row>
-    <row r="1149">
-      <c r="A1149" s="7" t="s">
+      <c r="C1146" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1146" s="2"/>
+      <c r="E1146" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1146" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1146" s="2"/>
+      <c r="H1146" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1146" s="3"/>
+      <c r="J1146" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="B1147" s="2"/>
+      <c r="C1147" s="2"/>
+      <c r="D1147" s="2"/>
+      <c r="E1147" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1147" s="2"/>
+      <c r="G1147" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1147" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1147" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1147" s="3"/>
+    </row>
+    <row r="1148">
+      <c r="I1148" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1148" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="B1150" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="B1149"/>
-      <c r="C1149"/>
-      <c r="D1149"/>
-      <c r="E1149"/>
-      <c r="F1149"/>
-      <c r="G1149"/>
-      <c r="H1149"/>
-      <c r="I1149"/>
-      <c r="J1149"/>
+      <c r="C1150" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1150" s="2"/>
+      <c r="E1150" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1150" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G1150" s="2"/>
+      <c r="H1150" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1150" s="3"/>
+      <c r="J1150" t="n" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="B1151" s="2"/>
+      <c r="C1151" s="2"/>
+      <c r="D1151" s="2"/>
+      <c r="E1151" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1151" s="2"/>
+      <c r="G1151" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="H1151" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1151" t="n" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J1151" s="3"/>
+    </row>
+    <row r="1152">
+      <c r="I1152" t="n" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J1152" t="n" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="B1154" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C1154" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1154" s="2"/>
+      <c r="E1154" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1154" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1154" s="2"/>
+      <c r="H1154" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1154" s="3"/>
+      <c r="J1154" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="B1155" s="2"/>
+      <c r="C1155" s="2"/>
+      <c r="D1155" s="2"/>
+      <c r="E1155" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1155" s="2"/>
+      <c r="G1155" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H1155" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1155" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1155" s="3"/>
+    </row>
+    <row r="1156">
+      <c r="I1156" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1156" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="B1158" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C1158" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1158" s="2"/>
+      <c r="E1158" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1158" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1158" s="2"/>
+      <c r="H1158" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1158" s="3"/>
+      <c r="J1158" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="B1159" s="2"/>
+      <c r="C1159" s="2"/>
+      <c r="D1159" s="2"/>
+      <c r="E1159" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1159" s="2"/>
+      <c r="G1159" s="2"/>
+      <c r="H1159" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1159" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1159" s="3"/>
+    </row>
+    <row r="1160">
+      <c r="I1160" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1160" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="B1162" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C1162" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1162" t="n" s="2">
+        <v>341.0</v>
+      </c>
+      <c r="E1162" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1162" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="G1162" s="2"/>
+      <c r="H1162" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1162" s="3"/>
+      <c r="J1162" t="n" s="4">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="B1163" s="2"/>
+      <c r="C1163" s="2"/>
+      <c r="D1163" s="2"/>
+      <c r="E1163" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1163" s="2"/>
+      <c r="G1163" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="H1163" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="I1163" t="n" s="4">
+        <v>1000.0</v>
+      </c>
+      <c r="J1163" s="3"/>
+    </row>
+    <row r="1164">
+      <c r="I1164" t="n" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="J1164" t="n" s="5">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="B1166" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="C1166" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1166" s="2"/>
+      <c r="E1166" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1166" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1166" s="2"/>
+      <c r="H1166" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1166" s="3"/>
+      <c r="J1166" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="B1167" s="2"/>
+      <c r="C1167" s="2"/>
+      <c r="D1167" s="2"/>
+      <c r="E1167" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1167" s="2"/>
+      <c r="G1167" s="2"/>
+      <c r="H1167" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1167" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1167" s="3"/>
+    </row>
+    <row r="1168">
+      <c r="I1168" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1168" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="B1170" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C1170" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="D1170" s="2"/>
+      <c r="E1170" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1170" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="G1170" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="H1170" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I1170" t="n" s="4">
+        <v>500.0</v>
+      </c>
+      <c r="J1170" s="3"/>
+    </row>
+    <row r="1171">
+      <c r="B1171" s="2"/>
+      <c r="C1171" s="2"/>
+      <c r="D1171" s="2"/>
+      <c r="E1171" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1171" s="2"/>
+      <c r="G1171" s="2"/>
+      <c r="H1171" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I1171" s="3"/>
+      <c r="J1171" t="n" s="4">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="I1172" t="n" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="J1172" t="n" s="5">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="B1174" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C1174" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D1174" s="2"/>
+      <c r="E1174" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1174" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="G1174" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="H1174" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1174" t="n" s="4">
+        <v>500.0</v>
+      </c>
+      <c r="J1174" s="3"/>
+    </row>
+    <row r="1175">
+      <c r="B1175" s="2"/>
+      <c r="C1175" s="2"/>
+      <c r="D1175" s="2"/>
+      <c r="E1175" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1175" s="2"/>
+      <c r="G1175" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="H1175" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I1175" s="3"/>
+      <c r="J1175" t="n" s="4">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="I1176" t="n" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="J1176" t="n" s="5">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="B1178" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C1178" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1178" s="2"/>
+      <c r="E1178" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1178" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="G1178" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1178" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1178" s="3"/>
+      <c r="J1178" t="n" s="4">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="B1179" s="2"/>
+      <c r="C1179" s="2"/>
+      <c r="D1179" s="2"/>
+      <c r="E1179" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1179" s="2"/>
+      <c r="G1179" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1179" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I1179" t="n" s="4">
+        <v>14.75</v>
+      </c>
+      <c r="J1179" s="3"/>
+    </row>
+    <row r="1180">
+      <c r="I1180" t="n" s="5">
+        <v>14.75</v>
+      </c>
+      <c r="J1180" t="n" s="5">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="s" s="6">
+        <v>562</v>
+      </c>
+      <c r="I1182" t="n" s="5">
+        <v>102872.69</v>
+      </c>
+      <c r="J1182" t="n" s="5">
+        <v>102872.69</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B1185"/>
+      <c r="C1185"/>
+      <c r="D1185"/>
+      <c r="E1185"/>
+      <c r="F1185"/>
+      <c r="G1185"/>
+      <c r="H1185"/>
+      <c r="I1185"/>
+      <c r="J1185"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1146"/>
-    <mergeCell ref="A1149:J1149"/>
+    <mergeCell ref="A1182"/>
+    <mergeCell ref="A1185:J1185"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>

--- a/2020-sgfdevs-journal.xlsx
+++ b/2020-sgfdevs-journal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="582">
   <si>
     <t>Date</t>
   </si>
@@ -1712,10 +1712,55 @@
     <t>Paid via QuickBooks Payments: Payment ID PL0032393209</t>
   </si>
   <si>
+    <t>07/01/2020</t>
+  </si>
+  <si>
+    <t>Zoom Video</t>
+  </si>
+  <si>
+    <t>07/01/2020-07/31/2020</t>
+  </si>
+  <si>
+    <t>Zoom Pro Monthly Subscription</t>
+  </si>
+  <si>
+    <t>07/02/2020</t>
+  </si>
+  <si>
+    <t>07/03/2020</t>
+  </si>
+  <si>
+    <t>AMAZON WEB SERVICES DBT CRD 2139 07/03/20 DBX1S014</t>
+  </si>
+  <si>
+    <t>07/05/2020</t>
+  </si>
+  <si>
+    <t>07/06/2020</t>
+  </si>
+  <si>
+    <t>07/07/2020</t>
+  </si>
+  <si>
+    <t>FBO</t>
+  </si>
+  <si>
+    <t>SGF DEVS</t>
+  </si>
+  <si>
+    <t>07/09/2020</t>
+  </si>
+  <si>
+    <t>07/10/2020</t>
+  </si>
+  <si>
+    <t>Domain Renewals (helpsgf.com, methodconf.com)</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Tuesday, Jul 07, 2020 04:00:00 PM GMT-7</t>
+    <t>Monday, Aug 10, 2020 08:45:35 PM GMT-7</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -1724,7 +1769,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January - June, 2020</t>
+    <t>January - July, 2020</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1899,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1868,7 +1913,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1882,7 +1927,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -17738,34 +17783,486 @@
       </c>
     </row>
     <row r="1182">
-      <c r="A1182" t="s" s="6">
+      <c r="B1182" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="I1182" t="n" s="5">
-        <v>102872.69</v>
-      </c>
-      <c r="J1182" t="n" s="5">
-        <v>102872.69</v>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" s="7" t="s">
+      <c r="C1182" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1182" s="2"/>
+      <c r="E1182" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1182" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1182" s="2"/>
+      <c r="H1182" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1182" s="3"/>
+      <c r="J1182" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="B1183" s="2"/>
+      <c r="C1183" s="2"/>
+      <c r="D1183" s="2"/>
+      <c r="E1183" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1183" s="2"/>
+      <c r="G1183" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1183" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1183" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1183" s="3"/>
+    </row>
+    <row r="1184">
+      <c r="I1184" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1184" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="B1186" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C1186" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1186" t="n" s="2">
+        <v>2.9050581E7</v>
+      </c>
+      <c r="E1186" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1186" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="B1185"/>
-      <c r="C1185"/>
-      <c r="D1185"/>
-      <c r="E1185"/>
-      <c r="F1185"/>
-      <c r="G1185"/>
-      <c r="H1185"/>
-      <c r="I1185"/>
-      <c r="J1185"/>
+      <c r="G1186" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="H1186" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1186" s="3"/>
+      <c r="J1186" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="B1187" s="2"/>
+      <c r="C1187" s="2"/>
+      <c r="D1187" s="2"/>
+      <c r="E1187" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1187" s="2"/>
+      <c r="G1187" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="H1187" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1187" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J1187" s="3"/>
+    </row>
+    <row r="1188">
+      <c r="I1188" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J1188" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="B1190" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="C1190" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1190" s="2"/>
+      <c r="E1190" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1190" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="G1190" s="2"/>
+      <c r="H1190" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1190" s="3"/>
+      <c r="J1190" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="B1191" s="2"/>
+      <c r="C1191" s="2"/>
+      <c r="D1191" s="2"/>
+      <c r="E1191" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1191" s="2"/>
+      <c r="G1191" s="2"/>
+      <c r="H1191" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1191" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J1191" s="3"/>
+    </row>
+    <row r="1192">
+      <c r="I1192" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J1192" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="B1194" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C1194" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1194" s="2"/>
+      <c r="E1194" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1194" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G1194" s="2"/>
+      <c r="H1194" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1194" s="3"/>
+      <c r="J1194" t="n" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="B1195" s="2"/>
+      <c r="C1195" s="2"/>
+      <c r="D1195" s="2"/>
+      <c r="E1195" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1195" s="2"/>
+      <c r="G1195" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="H1195" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1195" t="n" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J1195" s="3"/>
+    </row>
+    <row r="1196">
+      <c r="I1196" t="n" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J1196" t="n" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="B1198" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C1198" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1198" s="2"/>
+      <c r="E1198" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1198" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1198" s="2"/>
+      <c r="H1198" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1198" s="3"/>
+      <c r="J1198" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="B1199" s="2"/>
+      <c r="C1199" s="2"/>
+      <c r="D1199" s="2"/>
+      <c r="E1199" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1199" s="2"/>
+      <c r="G1199" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H1199" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1199" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1199" s="3"/>
+    </row>
+    <row r="1200">
+      <c r="I1200" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1200" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="B1202" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C1202" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1202" s="2"/>
+      <c r="E1202" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1202" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1202" s="2"/>
+      <c r="H1202" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1202" s="3"/>
+      <c r="J1202" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="B1203" s="2"/>
+      <c r="C1203" s="2"/>
+      <c r="D1203" s="2"/>
+      <c r="E1203" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1203" s="2"/>
+      <c r="G1203" s="2"/>
+      <c r="H1203" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1203" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1203" s="3"/>
+    </row>
+    <row r="1204">
+      <c r="I1204" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1204" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="B1206" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C1206" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1206" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="E1206" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1206" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="G1206" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="H1206" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1206" s="3"/>
+      <c r="J1206" t="n" s="4">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="B1207" s="2"/>
+      <c r="C1207" s="2"/>
+      <c r="D1207" s="2"/>
+      <c r="E1207" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1207" s="2"/>
+      <c r="G1207" s="2"/>
+      <c r="H1207" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1207" t="n" s="4">
+        <v>1000.0</v>
+      </c>
+      <c r="J1207" s="3"/>
+    </row>
+    <row r="1208">
+      <c r="I1208" t="n" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="J1208" t="n" s="5">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="B1210" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="C1210" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1210" s="2"/>
+      <c r="E1210" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1210" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1210" s="2"/>
+      <c r="H1210" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1210" s="3"/>
+      <c r="J1210" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="B1211" s="2"/>
+      <c r="C1211" s="2"/>
+      <c r="D1211" s="2"/>
+      <c r="E1211" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1211" s="2"/>
+      <c r="G1211" s="2"/>
+      <c r="H1211" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1211" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1211" s="3"/>
+    </row>
+    <row r="1212">
+      <c r="I1212" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1212" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="B1214" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C1214" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1214" s="2"/>
+      <c r="E1214" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1214" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="G1214" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="H1214" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1214" s="3"/>
+      <c r="J1214" t="n" s="4">
+        <v>35.96</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="B1215" s="2"/>
+      <c r="C1215" s="2"/>
+      <c r="D1215" s="2"/>
+      <c r="E1215" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1215" s="2"/>
+      <c r="G1215" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="H1215" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1215" t="n" s="4">
+        <v>35.96</v>
+      </c>
+      <c r="J1215" s="3"/>
+    </row>
+    <row r="1216">
+      <c r="I1216" t="n" s="5">
+        <v>35.96</v>
+      </c>
+      <c r="J1216" t="n" s="5">
+        <v>35.96</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="s" s="6">
+        <v>577</v>
+      </c>
+      <c r="I1218" t="n" s="5">
+        <v>104019.23</v>
+      </c>
+      <c r="J1218" t="n" s="5">
+        <v>104019.23</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1221"/>
+      <c r="C1221"/>
+      <c r="D1221"/>
+      <c r="E1221"/>
+      <c r="F1221"/>
+      <c r="G1221"/>
+      <c r="H1221"/>
+      <c r="I1221"/>
+      <c r="J1221"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1182"/>
-    <mergeCell ref="A1185:J1185"/>
+    <mergeCell ref="A1218"/>
+    <mergeCell ref="A1221:J1221"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>

--- a/2020-sgfdevs-journal.xlsx
+++ b/2020-sgfdevs-journal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="591">
   <si>
     <t>Date</t>
   </si>
@@ -1757,10 +1757,37 @@
     <t>Domain Renewals (helpsgf.com, methodconf.com)</t>
   </si>
   <si>
+    <t>08/01/2020</t>
+  </si>
+  <si>
+    <t>08/03/2020</t>
+  </si>
+  <si>
+    <t>Wal-Mart Super C POS DEB 1603 08/02/20 35350853</t>
+  </si>
+  <si>
+    <t>08/04/2020</t>
+  </si>
+  <si>
+    <t>AMAZON WEB SERVICES DBT CRD 1230 08/03/20 DBINVP2O</t>
+  </si>
+  <si>
+    <t>08/05/2020</t>
+  </si>
+  <si>
+    <t>08/07/2020</t>
+  </si>
+  <si>
+    <t>Dev Night Pizza</t>
+  </si>
+  <si>
+    <t>08/24/2020</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Monday, Aug 10, 2020 08:45:35 PM GMT-7</t>
+    <t>Sunday, Oct 04, 2020 05:07:25 PM GMT-7</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -1769,7 +1796,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January - July, 2020</t>
+    <t>January - August, 2020</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +1926,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1913,7 +1940,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1927,7 +1954,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -18235,34 +18262,480 @@
       </c>
     </row>
     <row r="1218">
-      <c r="A1218" t="s" s="6">
+      <c r="B1218" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="I1218" t="n" s="5">
-        <v>104019.23</v>
-      </c>
-      <c r="J1218" t="n" s="5">
-        <v>104019.23</v>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" s="7" t="s">
+      <c r="C1218" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1218" s="2"/>
+      <c r="E1218" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1218" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="G1218" s="2"/>
+      <c r="H1218" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1218" s="3"/>
+      <c r="J1218" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="B1219" s="2"/>
+      <c r="C1219" s="2"/>
+      <c r="D1219" s="2"/>
+      <c r="E1219" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1219" s="2"/>
+      <c r="G1219" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="H1219" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1219" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J1219" s="3"/>
+    </row>
+    <row r="1220">
+      <c r="I1220" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J1220" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="B1222" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C1222" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1222" s="2"/>
+      <c r="E1222" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1222" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1222" s="2"/>
+      <c r="H1222" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1222" s="3"/>
+      <c r="J1222" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="B1223" s="2"/>
+      <c r="C1223" s="2"/>
+      <c r="D1223" s="2"/>
+      <c r="E1223" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1223" s="2"/>
+      <c r="G1223" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1223" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1223" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1223" s="3"/>
+    </row>
+    <row r="1224">
+      <c r="I1224" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1224" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="B1226" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="B1221"/>
-      <c r="C1221"/>
-      <c r="D1221"/>
-      <c r="E1221"/>
-      <c r="F1221"/>
-      <c r="G1221"/>
-      <c r="H1221"/>
-      <c r="I1221"/>
-      <c r="J1221"/>
+      <c r="C1226" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1226" s="2"/>
+      <c r="E1226" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1226" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="G1226" s="2"/>
+      <c r="H1226" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1226" s="3"/>
+      <c r="J1226" t="n" s="4">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="B1227" s="2"/>
+      <c r="C1227" s="2"/>
+      <c r="D1227" s="2"/>
+      <c r="E1227" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1227" s="2"/>
+      <c r="G1227" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="H1227" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I1227" t="n" s="4">
+        <v>19.18</v>
+      </c>
+      <c r="J1227" s="3"/>
+    </row>
+    <row r="1228">
+      <c r="I1228" t="n" s="5">
+        <v>19.18</v>
+      </c>
+      <c r="J1228" t="n" s="5">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="B1230" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="C1230" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1230" s="2"/>
+      <c r="E1230" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1230" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="G1230" s="2"/>
+      <c r="H1230" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1230" s="3"/>
+      <c r="J1230" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="B1231" s="2"/>
+      <c r="C1231" s="2"/>
+      <c r="D1231" s="2"/>
+      <c r="E1231" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1231" s="2"/>
+      <c r="G1231" s="2"/>
+      <c r="H1231" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1231" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J1231" s="3"/>
+    </row>
+    <row r="1232">
+      <c r="I1232" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J1232" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="B1234" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="C1234" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1234" s="2"/>
+      <c r="E1234" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1234" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G1234" s="2"/>
+      <c r="H1234" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1234" s="3"/>
+      <c r="J1234" t="n" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="B1235" s="2"/>
+      <c r="C1235" s="2"/>
+      <c r="D1235" s="2"/>
+      <c r="E1235" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1235" s="2"/>
+      <c r="G1235" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="H1235" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1235" t="n" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J1235" s="3"/>
+    </row>
+    <row r="1236">
+      <c r="I1236" t="n" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J1236" t="n" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="B1238" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="C1238" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1238" s="2"/>
+      <c r="E1238" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1238" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1238" s="2"/>
+      <c r="H1238" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1238" s="3"/>
+      <c r="J1238" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="B1239" s="2"/>
+      <c r="C1239" s="2"/>
+      <c r="D1239" s="2"/>
+      <c r="E1239" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1239" s="2"/>
+      <c r="G1239" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H1239" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1239" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1239" s="3"/>
+    </row>
+    <row r="1240">
+      <c r="I1240" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1240" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="B1242" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="C1242" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1242" s="2"/>
+      <c r="E1242" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1242" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1242" s="2"/>
+      <c r="H1242" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1242" s="3"/>
+      <c r="J1242" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="B1243" s="2"/>
+      <c r="C1243" s="2"/>
+      <c r="D1243" s="2"/>
+      <c r="E1243" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1243" s="2"/>
+      <c r="G1243" s="2"/>
+      <c r="H1243" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1243" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1243" s="3"/>
+    </row>
+    <row r="1244">
+      <c r="I1244" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1244" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="B1246" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C1246" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1246" s="2"/>
+      <c r="E1246" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1246" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G1246" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="H1246" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1246" s="3"/>
+      <c r="J1246" t="n" s="4">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="B1247" s="2"/>
+      <c r="C1247" s="2"/>
+      <c r="D1247" s="2"/>
+      <c r="E1247" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1247" s="2"/>
+      <c r="G1247" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="H1247" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I1247" t="n" s="4">
+        <v>62.6</v>
+      </c>
+      <c r="J1247" s="3"/>
+    </row>
+    <row r="1248">
+      <c r="I1248" t="n" s="5">
+        <v>62.6</v>
+      </c>
+      <c r="J1248" t="n" s="5">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="B1250" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C1250" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1250" s="2"/>
+      <c r="E1250" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1250" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1250" s="2"/>
+      <c r="H1250" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1250" s="3"/>
+      <c r="J1250" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="B1251" s="2"/>
+      <c r="C1251" s="2"/>
+      <c r="D1251" s="2"/>
+      <c r="E1251" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1251" s="2"/>
+      <c r="G1251" s="2"/>
+      <c r="H1251" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1251" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1251" s="3"/>
+    </row>
+    <row r="1252">
+      <c r="I1252" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1252" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="s" s="6">
+        <v>586</v>
+      </c>
+      <c r="I1254" t="n" s="5">
+        <v>104211.59</v>
+      </c>
+      <c r="J1254" t="n" s="5">
+        <v>104211.59</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1257"/>
+      <c r="C1257"/>
+      <c r="D1257"/>
+      <c r="E1257"/>
+      <c r="F1257"/>
+      <c r="G1257"/>
+      <c r="H1257"/>
+      <c r="I1257"/>
+      <c r="J1257"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1218"/>
-    <mergeCell ref="A1221:J1221"/>
+    <mergeCell ref="A1254"/>
+    <mergeCell ref="A1257:J1257"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>

--- a/2020-sgfdevs-journal.xlsx
+++ b/2020-sgfdevs-journal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="601">
   <si>
     <t>Date</t>
   </si>
@@ -1784,10 +1784,40 @@
     <t>08/24/2020</t>
   </si>
   <si>
+    <t>09/01/2020</t>
+  </si>
+  <si>
+    <t>09/02/2020</t>
+  </si>
+  <si>
+    <t>09/03/2020</t>
+  </si>
+  <si>
+    <t>AMAZON WEB SERVICES DBT CRD 0038 09/03/20 DB1123GQ</t>
+  </si>
+  <si>
+    <t>09/04/2020</t>
+  </si>
+  <si>
+    <t>Dev Night Food</t>
+  </si>
+  <si>
+    <t>09/05/2020</t>
+  </si>
+  <si>
+    <t>09/08/2020</t>
+  </si>
+  <si>
+    <t>09/30/2020</t>
+  </si>
+  <si>
+    <t>sgfwebdevs.com 1YR</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Sunday, Oct 04, 2020 05:07:25 PM GMT-7</t>
+    <t>Sunday, Oct 11, 2020 06:32:22 PM GMT-7</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -1796,7 +1826,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January - August, 2020</t>
+    <t>January - September, 2020</t>
   </si>
 </sst>
 </file>
@@ -1920,13 +1950,13 @@
     <col min="6" max="6" width="32.65625" customWidth="true"/>
     <col min="7" max="7" width="86.796875" customWidth="true"/>
     <col min="8" max="8" width="30.9375" customWidth="true"/>
-    <col min="9" max="9" width="11.171875" customWidth="true"/>
-    <col min="10" max="10" width="11.171875" customWidth="true"/>
+    <col min="9" max="9" width="10.3125" customWidth="true"/>
+    <col min="10" max="10" width="10.3125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1940,7 +1970,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1954,7 +1984,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -18708,34 +18738,482 @@
       </c>
     </row>
     <row r="1254">
-      <c r="A1254" t="s" s="6">
+      <c r="B1254" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="I1254" t="n" s="5">
-        <v>104211.59</v>
-      </c>
-      <c r="J1254" t="n" s="5">
-        <v>104211.59</v>
-      </c>
-    </row>
-    <row r="1257">
-      <c r="A1257" s="7" t="s">
+      <c r="C1254" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1254" s="2"/>
+      <c r="E1254" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1254" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="G1254" s="2"/>
+      <c r="H1254" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1254" s="3"/>
+      <c r="J1254" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="B1255" s="2"/>
+      <c r="C1255" s="2"/>
+      <c r="D1255" s="2"/>
+      <c r="E1255" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1255" s="2"/>
+      <c r="G1255" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="H1255" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1255" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J1255" s="3"/>
+    </row>
+    <row r="1256">
+      <c r="I1256" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J1256" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="B1258" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="C1258" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1258" s="2"/>
+      <c r="E1258" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1258" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1258" s="2"/>
+      <c r="H1258" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1258" s="3"/>
+      <c r="J1258" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="B1259" s="2"/>
+      <c r="C1259" s="2"/>
+      <c r="D1259" s="2"/>
+      <c r="E1259" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1259" s="2"/>
+      <c r="G1259" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1259" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1259" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1259" s="3"/>
+    </row>
+    <row r="1260">
+      <c r="I1260" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1260" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="B1262" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="B1257"/>
-      <c r="C1257"/>
-      <c r="D1257"/>
-      <c r="E1257"/>
-      <c r="F1257"/>
-      <c r="G1257"/>
-      <c r="H1257"/>
-      <c r="I1257"/>
-      <c r="J1257"/>
+      <c r="C1262" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1262" s="2"/>
+      <c r="E1262" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1262" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="G1262" s="2"/>
+      <c r="H1262" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1262" s="3"/>
+      <c r="J1262" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="B1263" s="2"/>
+      <c r="C1263" s="2"/>
+      <c r="D1263" s="2"/>
+      <c r="E1263" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1263" s="2"/>
+      <c r="G1263" s="2"/>
+      <c r="H1263" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1263" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J1263" s="3"/>
+    </row>
+    <row r="1264">
+      <c r="I1264" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J1264" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="B1266" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C1266" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1266" s="2"/>
+      <c r="E1266" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1266" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G1266" s="2"/>
+      <c r="H1266" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1266" s="3"/>
+      <c r="J1266" t="n" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="B1267" s="2"/>
+      <c r="C1267" s="2"/>
+      <c r="D1267" s="2"/>
+      <c r="E1267" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1267" s="2"/>
+      <c r="G1267" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="H1267" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1267" t="n" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J1267" s="3"/>
+    </row>
+    <row r="1268">
+      <c r="I1268" t="n" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J1268" t="n" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="B1270" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C1270" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1270" s="2"/>
+      <c r="E1270" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1270" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1270" s="2"/>
+      <c r="H1270" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1270" s="3"/>
+      <c r="J1270" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="B1271" s="2"/>
+      <c r="C1271" s="2"/>
+      <c r="D1271" s="2"/>
+      <c r="E1271" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1271" s="2"/>
+      <c r="G1271" s="2"/>
+      <c r="H1271" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1271" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1271" s="3"/>
+    </row>
+    <row r="1272">
+      <c r="I1272" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1272" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="B1274" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C1274" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1274" s="2"/>
+      <c r="E1274" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1274" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G1274" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="H1274" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1274" s="3"/>
+      <c r="J1274" t="n" s="4">
+        <v>63.85</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="B1275" s="2"/>
+      <c r="C1275" s="2"/>
+      <c r="D1275" s="2"/>
+      <c r="E1275" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1275" s="2"/>
+      <c r="G1275" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="H1275" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I1275" t="n" s="4">
+        <v>63.85</v>
+      </c>
+      <c r="J1275" s="3"/>
+    </row>
+    <row r="1276">
+      <c r="I1276" t="n" s="5">
+        <v>63.85</v>
+      </c>
+      <c r="J1276" t="n" s="5">
+        <v>63.85</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="B1278" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="C1278" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1278" s="2"/>
+      <c r="E1278" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1278" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1278" s="2"/>
+      <c r="H1278" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1278" s="3"/>
+      <c r="J1278" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="B1279" s="2"/>
+      <c r="C1279" s="2"/>
+      <c r="D1279" s="2"/>
+      <c r="E1279" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1279" s="2"/>
+      <c r="G1279" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H1279" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1279" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1279" s="3"/>
+    </row>
+    <row r="1280">
+      <c r="I1280" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1280" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="B1282" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C1282" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1282" s="2"/>
+      <c r="E1282" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1282" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1282" s="2"/>
+      <c r="H1282" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1282" s="3"/>
+      <c r="J1282" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="B1283" s="2"/>
+      <c r="C1283" s="2"/>
+      <c r="D1283" s="2"/>
+      <c r="E1283" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1283" s="2"/>
+      <c r="G1283" s="2"/>
+      <c r="H1283" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1283" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1283" s="3"/>
+    </row>
+    <row r="1284">
+      <c r="I1284" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1284" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="B1286" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C1286" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1286" s="2"/>
+      <c r="E1286" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1286" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="G1286" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="H1286" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1286" s="3"/>
+      <c r="J1286" t="n" s="4">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="B1287" s="2"/>
+      <c r="C1287" s="2"/>
+      <c r="D1287" s="2"/>
+      <c r="E1287" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1287" s="2"/>
+      <c r="G1287" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="H1287" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1287" t="n" s="4">
+        <v>17.98</v>
+      </c>
+      <c r="J1287" s="3"/>
+    </row>
+    <row r="1288">
+      <c r="I1288" t="n" s="5">
+        <v>17.98</v>
+      </c>
+      <c r="J1288" t="n" s="5">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="s" s="6">
+        <v>596</v>
+      </c>
+      <c r="I1290" t="n" s="5">
+        <v>104404.0</v>
+      </c>
+      <c r="J1290" t="n" s="5">
+        <v>104404.0</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1293"/>
+      <c r="C1293"/>
+      <c r="D1293"/>
+      <c r="E1293"/>
+      <c r="F1293"/>
+      <c r="G1293"/>
+      <c r="H1293"/>
+      <c r="I1293"/>
+      <c r="J1293"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1254"/>
-    <mergeCell ref="A1257:J1257"/>
+    <mergeCell ref="A1290"/>
+    <mergeCell ref="A1293:J1293"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>

--- a/2020-sgfdevs-journal.xlsx
+++ b/2020-sgfdevs-journal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="615">
   <si>
     <t>Date</t>
   </si>
@@ -1814,10 +1814,52 @@
     <t>sgfwebdevs.com 1YR</t>
   </si>
   <si>
+    <t>10/01/2020</t>
+  </si>
+  <si>
+    <t>10/02/2020</t>
+  </si>
+  <si>
+    <t>1Password</t>
+  </si>
+  <si>
+    <t>1Password Families Plan (Annual)</t>
+  </si>
+  <si>
+    <t>10/05/2020</t>
+  </si>
+  <si>
+    <t>1Password Annual Renewal</t>
+  </si>
+  <si>
+    <t>Monthly Hosting</t>
+  </si>
+  <si>
+    <t>10/06/2020</t>
+  </si>
+  <si>
+    <t>10/07/2020</t>
+  </si>
+  <si>
+    <t>10/09/2020</t>
+  </si>
+  <si>
+    <t>10/15/2020</t>
+  </si>
+  <si>
+    <t>Meetup 10/14/2020-04/14/2021</t>
+  </si>
+  <si>
+    <t>10/19/2020</t>
+  </si>
+  <si>
+    <t>devfestsgf.com 1YR</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Sunday, Oct 11, 2020 06:32:22 PM GMT-7</t>
+    <t>Monday, Nov 09, 2020 07:27:51 PM GMT-8</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -1826,7 +1868,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January - September, 2020</t>
+    <t>January - October, 2020</t>
   </si>
 </sst>
 </file>
@@ -1834,8 +1876,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;* #,##0.00\ _€"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;* #,##0.00\ _€"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1912,10 +1954,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
       <alignment wrapText="true" horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <alignment wrapText="true" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1936,7 +1978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J1341"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1956,7 +1998,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1970,7 +2012,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1984,7 +2026,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -19186,34 +19228,637 @@
       </c>
     </row>
     <row r="1290">
-      <c r="A1290" t="s" s="6">
+      <c r="B1290" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="I1290" t="n" s="5">
-        <v>104404.0</v>
-      </c>
-      <c r="J1290" t="n" s="5">
-        <v>104404.0</v>
-      </c>
-    </row>
-    <row r="1293">
-      <c r="A1293" s="7" t="s">
+      <c r="C1290" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1290" s="2"/>
+      <c r="E1290" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1290" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="G1290" s="2"/>
+      <c r="H1290" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1290" s="3"/>
+      <c r="J1290" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="B1291" s="2"/>
+      <c r="C1291" s="2"/>
+      <c r="D1291" s="2"/>
+      <c r="E1291" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1291" s="2"/>
+      <c r="G1291" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="H1291" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1291" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J1291" s="3"/>
+    </row>
+    <row r="1292">
+      <c r="I1292" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J1292" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="B1294" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C1294" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1294" s="2"/>
+      <c r="E1294" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1294" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1294" s="2"/>
+      <c r="H1294" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1294" s="3"/>
+      <c r="J1294" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="B1295" s="2"/>
+      <c r="C1295" s="2"/>
+      <c r="D1295" s="2"/>
+      <c r="E1295" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1295" s="2"/>
+      <c r="G1295" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1295" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1295" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1295" s="3"/>
+    </row>
+    <row r="1296">
+      <c r="I1296" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1296" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="B1298" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="B1293"/>
-      <c r="C1293"/>
-      <c r="D1293"/>
-      <c r="E1293"/>
-      <c r="F1293"/>
-      <c r="G1293"/>
-      <c r="H1293"/>
-      <c r="I1293"/>
-      <c r="J1293"/>
+      <c r="C1298" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1298" s="2"/>
+      <c r="E1298" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1298" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="G1298" s="2"/>
+      <c r="H1298" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1298" s="3"/>
+      <c r="J1298" t="n" s="4">
+        <v>59.85</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="B1299" s="2"/>
+      <c r="C1299" s="2"/>
+      <c r="D1299" s="2"/>
+      <c r="E1299" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1299" s="2"/>
+      <c r="G1299" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="H1299" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1299" t="n" s="4">
+        <v>59.85</v>
+      </c>
+      <c r="J1299" s="3"/>
+    </row>
+    <row r="1300">
+      <c r="I1300" t="n" s="5">
+        <v>59.85</v>
+      </c>
+      <c r="J1300" t="n" s="5">
+        <v>59.85</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="B1302" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C1302" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1302" s="2"/>
+      <c r="E1302" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1302" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1302" s="2"/>
+      <c r="H1302" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1302" s="3"/>
+      <c r="J1302" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="B1303" s="2"/>
+      <c r="C1303" s="2"/>
+      <c r="D1303" s="2"/>
+      <c r="E1303" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1303" s="2"/>
+      <c r="G1303" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H1303" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1303" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1303" s="3"/>
+    </row>
+    <row r="1304">
+      <c r="I1304" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1304" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="B1306" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C1306" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1306" s="2"/>
+      <c r="E1306" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1306" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="G1306" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="H1306" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1306" s="3"/>
+      <c r="J1306" t="n" s="4">
+        <v>59.85</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="B1307" s="2"/>
+      <c r="C1307" s="2"/>
+      <c r="D1307" s="2"/>
+      <c r="E1307" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1307" s="2"/>
+      <c r="G1307" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="H1307" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1307" t="n" s="4">
+        <v>59.85</v>
+      </c>
+      <c r="J1307" s="3"/>
+    </row>
+    <row r="1308">
+      <c r="I1308" t="n" s="5">
+        <v>59.85</v>
+      </c>
+      <c r="J1308" t="n" s="5">
+        <v>59.85</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="B1310" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C1310" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1310" s="2"/>
+      <c r="E1310" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1310" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="G1310" s="2"/>
+      <c r="H1310" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1310" s="3"/>
+      <c r="J1310" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="B1311" s="2"/>
+      <c r="C1311" s="2"/>
+      <c r="D1311" s="2"/>
+      <c r="E1311" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1311" s="2"/>
+      <c r="G1311" s="2"/>
+      <c r="H1311" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1311" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J1311" s="3"/>
+    </row>
+    <row r="1312">
+      <c r="I1312" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J1312" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="B1314" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C1314" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1314" s="2"/>
+      <c r="E1314" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1314" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G1314" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="H1314" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1314" s="3"/>
+      <c r="J1314" t="n" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="B1315" s="2"/>
+      <c r="C1315" s="2"/>
+      <c r="D1315" s="2"/>
+      <c r="E1315" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1315" s="2"/>
+      <c r="G1315" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="H1315" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1315" t="n" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J1315" s="3"/>
+    </row>
+    <row r="1316">
+      <c r="I1316" t="n" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J1316" t="n" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="B1318" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C1318" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1318" s="2"/>
+      <c r="E1318" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1318" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1318" s="2"/>
+      <c r="H1318" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1318" s="3"/>
+      <c r="J1318" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="B1319" s="2"/>
+      <c r="C1319" s="2"/>
+      <c r="D1319" s="2"/>
+      <c r="E1319" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1319" s="2"/>
+      <c r="G1319" s="2"/>
+      <c r="H1319" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1319" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1319" s="3"/>
+    </row>
+    <row r="1320">
+      <c r="I1320" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1320" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="B1322" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="C1322" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1322" s="2"/>
+      <c r="E1322" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1322" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1322" s="2"/>
+      <c r="H1322" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1322" s="3"/>
+      <c r="J1322" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="B1323" s="2"/>
+      <c r="C1323" s="2"/>
+      <c r="D1323" s="2"/>
+      <c r="E1323" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1323" s="2"/>
+      <c r="G1323" s="2"/>
+      <c r="H1323" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1323" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1323" s="3"/>
+    </row>
+    <row r="1324">
+      <c r="I1324" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1324" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="B1326" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="C1326" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1326" s="2"/>
+      <c r="E1326" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1326" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G1326" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="H1326" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1326" s="3"/>
+      <c r="J1326" t="n" s="4">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="B1327" s="2"/>
+      <c r="C1327" s="2"/>
+      <c r="D1327" s="2"/>
+      <c r="E1327" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1327" s="2"/>
+      <c r="G1327" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="H1327" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I1327" t="n" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="J1327" s="3"/>
+    </row>
+    <row r="1328">
+      <c r="I1328" t="n" s="5">
+        <v>57.0</v>
+      </c>
+      <c r="J1328" t="n" s="5">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="B1330" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C1330" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1330" s="2"/>
+      <c r="E1330" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1330" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="G1330" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="H1330" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1330" s="3"/>
+      <c r="J1330" t="n" s="4">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="B1331" s="2"/>
+      <c r="C1331" s="2"/>
+      <c r="D1331" s="2"/>
+      <c r="E1331" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1331" s="2"/>
+      <c r="G1331" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="H1331" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1331" t="n" s="4">
+        <v>98.94</v>
+      </c>
+      <c r="J1331" s="3"/>
+    </row>
+    <row r="1332">
+      <c r="I1332" t="n" s="5">
+        <v>98.94</v>
+      </c>
+      <c r="J1332" t="n" s="5">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="B1334" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="C1334" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1334" s="2"/>
+      <c r="E1334" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1334" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="G1334" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="H1334" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1334" s="3"/>
+      <c r="J1334" t="n" s="4">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="B1335" s="2"/>
+      <c r="C1335" s="2"/>
+      <c r="D1335" s="2"/>
+      <c r="E1335" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1335" s="2"/>
+      <c r="G1335" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="H1335" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1335" t="n" s="4">
+        <v>17.98</v>
+      </c>
+      <c r="J1335" s="3"/>
+    </row>
+    <row r="1336">
+      <c r="I1336" t="n" s="5">
+        <v>17.98</v>
+      </c>
+      <c r="J1336" t="n" s="5">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="s" s="6">
+        <v>610</v>
+      </c>
+      <c r="I1338" t="n" s="5">
+        <v>104808.2</v>
+      </c>
+      <c r="J1338" t="n" s="5">
+        <v>104808.2</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B1341"/>
+      <c r="C1341"/>
+      <c r="D1341"/>
+      <c r="E1341"/>
+      <c r="F1341"/>
+      <c r="G1341"/>
+      <c r="H1341"/>
+      <c r="I1341"/>
+      <c r="J1341"/>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1290"/>
-    <mergeCell ref="A1293:J1293"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1341:J1341"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>

--- a/2020-sgfdevs-journal.xlsx
+++ b/2020-sgfdevs-journal.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Journal" r:id="rId3" sheetId="1"/>
+    <sheet name="Export Journal" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="630">
   <si>
     <t>Date</t>
   </si>
@@ -1682,6 +1682,21 @@
     <t>05/07/2020</t>
   </si>
   <si>
+    <t>05/18/2020</t>
+  </si>
+  <si>
+    <t>AITP of the Ozarks, Inc.</t>
+  </si>
+  <si>
+    <t>Received 08/11. Requested name/address change 10/04. Received updated invoice 11/16. Paid 11/18.</t>
+  </si>
+  <si>
+    <t>AITP Shared Office Space 2020</t>
+  </si>
+  <si>
+    <t>Devs:Devs Office Space</t>
+  </si>
+  <si>
     <t>06/01/2020</t>
   </si>
   <si>
@@ -1856,10 +1871,40 @@
     <t>devfestsgf.com 1YR</t>
   </si>
   <si>
+    <t>11/01/2020</t>
+  </si>
+  <si>
+    <t>11/02/2020</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>AMAZON WEB SERVICES DBT CRD 1502 11/03/20 DBQ48OVV</t>
+  </si>
+  <si>
+    <t>11/05/2020</t>
+  </si>
+  <si>
+    <t>11/06/2020</t>
+  </si>
+  <si>
+    <t>11/07/2020</t>
+  </si>
+  <si>
+    <t>DEV devfestsgf.com</t>
+  </si>
+  <si>
+    <t>11/09/2020</t>
+  </si>
+  <si>
+    <t>11/19/2020</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Monday, Nov 09, 2020 07:27:51 PM GMT-8</t>
+    <t>Saturday, Dec 05, 2020 09:36:06 AM GMT-8</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -1868,7 +1913,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January - October, 2020</t>
+    <t>January - November, 2020</t>
   </si>
 </sst>
 </file>
@@ -1978,7 +2023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J1341"/>
+  <dimension ref="A1:J1385"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1992,13 +2037,13 @@
     <col min="6" max="6" width="32.65625" customWidth="true"/>
     <col min="7" max="7" width="86.796875" customWidth="true"/>
     <col min="8" max="8" width="30.9375" customWidth="true"/>
-    <col min="9" max="9" width="10.3125" customWidth="true"/>
-    <col min="10" max="10" width="10.3125" customWidth="true"/>
+    <col min="9" max="9" width="11.171875" customWidth="true"/>
+    <col min="10" max="10" width="11.171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -2012,7 +2057,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -2026,7 +2071,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -17436,20 +17481,24 @@
       <c r="C1146" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="D1146" s="2"/>
+      <c r="D1146" t="n" s="2">
+        <v>2202.0</v>
+      </c>
       <c r="E1146" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1146" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="G1146" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="G1146" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="H1146" t="s" s="2">
         <v>13</v>
       </c>
       <c r="I1146" s="3"/>
       <c r="J1146" t="n" s="4">
-        <v>20.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="1147">
@@ -17461,45 +17510,45 @@
       </c>
       <c r="F1147" s="2"/>
       <c r="G1147" t="s" s="2">
-        <v>14</v>
+        <v>555</v>
       </c>
       <c r="H1147" t="s" s="2">
-        <v>15</v>
+        <v>556</v>
       </c>
       <c r="I1147" t="n" s="4">
-        <v>20.0</v>
+        <v>300.0</v>
       </c>
       <c r="J1147" s="3"/>
     </row>
     <row r="1148">
       <c r="I1148" t="n" s="5">
-        <v>20.0</v>
+        <v>300.0</v>
       </c>
       <c r="J1148" t="n" s="5">
-        <v>20.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="1150">
       <c r="B1150" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C1150" t="s" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D1150" s="2"/>
       <c r="E1150" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1150" t="s" s="2">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G1150" s="2"/>
       <c r="H1150" t="s" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I1150" s="3"/>
       <c r="J1150" t="n" s="4">
-        <v>0.6</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1151">
@@ -17511,45 +17560,45 @@
       </c>
       <c r="F1151" s="2"/>
       <c r="G1151" t="s" s="2">
-        <v>554</v>
+        <v>14</v>
       </c>
       <c r="H1151" t="s" s="2">
         <v>15</v>
       </c>
       <c r="I1151" t="n" s="4">
-        <v>0.6</v>
+        <v>20.0</v>
       </c>
       <c r="J1151" s="3"/>
     </row>
     <row r="1152">
       <c r="I1152" t="n" s="5">
-        <v>0.6</v>
+        <v>20.0</v>
       </c>
       <c r="J1152" t="n" s="5">
-        <v>0.6</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1154">
       <c r="B1154" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C1154" t="s" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D1154" s="2"/>
       <c r="E1154" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1154" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G1154" s="2"/>
       <c r="H1154" t="s" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I1154" s="3"/>
       <c r="J1154" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="1155">
@@ -17561,41 +17610,41 @@
       </c>
       <c r="F1155" s="2"/>
       <c r="G1155" t="s" s="2">
-        <v>33</v>
+        <v>559</v>
       </c>
       <c r="H1155" t="s" s="2">
         <v>15</v>
       </c>
       <c r="I1155" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
       <c r="J1155" s="3"/>
     </row>
     <row r="1156">
       <c r="I1156" t="n" s="5">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
       <c r="J1156" t="n" s="5">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="1158">
       <c r="B1158" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C1158" t="s" s="2">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D1158" s="2"/>
       <c r="E1158" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1158" t="s" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G1158" s="2"/>
       <c r="H1158" t="s" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I1158" s="3"/>
       <c r="J1158" t="n" s="4">
@@ -17610,9 +17659,11 @@
         <v>11</v>
       </c>
       <c r="F1159" s="2"/>
-      <c r="G1159" s="2"/>
+      <c r="G1159" t="s" s="2">
+        <v>33</v>
+      </c>
       <c r="H1159" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I1159" t="n" s="4">
         <v>20.0</v>
@@ -17629,27 +17680,25 @@
     </row>
     <row r="1162">
       <c r="B1162" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C1162" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="D1162" t="n" s="2">
-        <v>341.0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D1162" s="2"/>
       <c r="E1162" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1162" t="s" s="2">
-        <v>534</v>
+        <v>12</v>
       </c>
       <c r="G1162" s="2"/>
       <c r="H1162" t="s" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I1162" s="3"/>
       <c r="J1162" t="n" s="4">
-        <v>1000.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1163">
@@ -17660,46 +17709,46 @@
         <v>11</v>
       </c>
       <c r="F1163" s="2"/>
-      <c r="G1163" t="s" s="2">
-        <v>558</v>
-      </c>
+      <c r="G1163" s="2"/>
       <c r="H1163" t="s" s="2">
-        <v>536</v>
+        <v>13</v>
       </c>
       <c r="I1163" t="n" s="4">
-        <v>1000.0</v>
+        <v>20.0</v>
       </c>
       <c r="J1163" s="3"/>
     </row>
     <row r="1164">
       <c r="I1164" t="n" s="5">
-        <v>1000.0</v>
+        <v>20.0</v>
       </c>
       <c r="J1164" t="n" s="5">
-        <v>1000.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1166">
       <c r="B1166" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C1166" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D1166" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D1166" t="n" s="2">
+        <v>341.0</v>
+      </c>
       <c r="E1166" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1166" t="s" s="2">
-        <v>32</v>
+        <v>534</v>
       </c>
       <c r="G1166" s="2"/>
       <c r="H1166" t="s" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I1166" s="3"/>
       <c r="J1166" t="n" s="4">
-        <v>20.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="1167">
@@ -17710,47 +17759,47 @@
         <v>11</v>
       </c>
       <c r="F1167" s="2"/>
-      <c r="G1167" s="2"/>
+      <c r="G1167" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="H1167" t="s" s="2">
-        <v>13</v>
+        <v>536</v>
       </c>
       <c r="I1167" t="n" s="4">
-        <v>20.0</v>
+        <v>1000.0</v>
       </c>
       <c r="J1167" s="3"/>
     </row>
     <row r="1168">
       <c r="I1168" t="n" s="5">
-        <v>20.0</v>
+        <v>1000.0</v>
       </c>
       <c r="J1168" t="n" s="5">
-        <v>20.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="1170">
       <c r="B1170" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C1170" t="s" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D1170" s="2"/>
       <c r="E1170" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1170" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="G1170" t="s" s="2">
-        <v>561</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G1170" s="2"/>
       <c r="H1170" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I1170" t="n" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="J1170" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="I1170" s="3"/>
+      <c r="J1170" t="n" s="4">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="B1171" s="2"/>
@@ -17762,27 +17811,27 @@
       <c r="F1171" s="2"/>
       <c r="G1171" s="2"/>
       <c r="H1171" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="I1171" s="3"/>
-      <c r="J1171" t="n" s="4">
-        <v>500.0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I1171" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1171" s="3"/>
     </row>
     <row r="1172">
       <c r="I1172" t="n" s="5">
-        <v>500.0</v>
+        <v>20.0</v>
       </c>
       <c r="J1172" t="n" s="5">
-        <v>500.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1174">
       <c r="B1174" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C1174" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D1174" s="2"/>
       <c r="E1174" t="s" s="2">
@@ -17792,10 +17841,10 @@
         <v>118</v>
       </c>
       <c r="G1174" t="s" s="2">
-        <v>23</v>
+        <v>566</v>
       </c>
       <c r="H1174" t="s" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1174" t="n" s="4">
         <v>500.0</v>
@@ -17810,11 +17859,9 @@
         <v>11</v>
       </c>
       <c r="F1175" s="2"/>
-      <c r="G1175" t="s" s="2">
-        <v>561</v>
-      </c>
+      <c r="G1175" s="2"/>
       <c r="H1175" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1175" s="3"/>
       <c r="J1175" t="n" s="4">
@@ -17831,28 +17878,28 @@
     </row>
     <row r="1178">
       <c r="B1178" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C1178" t="s" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1178" s="2"/>
       <c r="E1178" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1178" t="s" s="2">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="G1178" t="s" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H1178" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="I1178" s="3"/>
-      <c r="J1178" t="n" s="4">
-        <v>14.75</v>
-      </c>
+      <c r="I1178" t="n" s="4">
+        <v>500.0</v>
+      </c>
+      <c r="J1178" s="3"/>
     </row>
     <row r="1179">
       <c r="B1179" s="2"/>
@@ -17863,45 +17910,47 @@
       </c>
       <c r="F1179" s="2"/>
       <c r="G1179" t="s" s="2">
-        <v>27</v>
+        <v>566</v>
       </c>
       <c r="H1179" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="I1179" t="n" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="J1179" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="I1179" s="3"/>
+      <c r="J1179" t="n" s="4">
+        <v>500.0</v>
+      </c>
     </row>
     <row r="1180">
       <c r="I1180" t="n" s="5">
-        <v>14.75</v>
+        <v>500.0</v>
       </c>
       <c r="J1180" t="n" s="5">
-        <v>14.75</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="1182">
       <c r="B1182" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C1182" t="s" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D1182" s="2"/>
       <c r="E1182" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1182" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="G1182" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="G1182" t="s" s="2">
+        <v>27</v>
+      </c>
       <c r="H1182" t="s" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I1182" s="3"/>
       <c r="J1182" t="n" s="4">
-        <v>20.0</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="1183">
@@ -17913,49 +17962,45 @@
       </c>
       <c r="F1183" s="2"/>
       <c r="G1183" t="s" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H1183" t="s" s="2">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I1183" t="n" s="4">
-        <v>20.0</v>
+        <v>14.75</v>
       </c>
       <c r="J1183" s="3"/>
     </row>
     <row r="1184">
       <c r="I1184" t="n" s="5">
-        <v>20.0</v>
+        <v>14.75</v>
       </c>
       <c r="J1184" t="n" s="5">
-        <v>20.0</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="1186">
       <c r="B1186" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C1186" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="D1186" t="n" s="2">
-        <v>2.9050581E7</v>
-      </c>
+      <c r="D1186" s="2"/>
       <c r="E1186" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1186" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="G1186" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G1186" s="2"/>
       <c r="H1186" t="s" s="2">
         <v>13</v>
       </c>
       <c r="I1186" s="3"/>
       <c r="J1186" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1187">
@@ -17967,41 +18012,45 @@
       </c>
       <c r="F1187" s="2"/>
       <c r="G1187" t="s" s="2">
-        <v>565</v>
+        <v>14</v>
       </c>
       <c r="H1187" t="s" s="2">
         <v>15</v>
       </c>
       <c r="I1187" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
       <c r="J1187" s="3"/>
     </row>
     <row r="1188">
       <c r="I1188" t="n" s="5">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
       <c r="J1188" t="n" s="5">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1190">
       <c r="B1190" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C1190" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D1190" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D1190" t="n" s="2">
+        <v>2.9050581E7</v>
+      </c>
       <c r="E1190" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1190" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="G1190" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="G1190" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="H1190" t="s" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I1190" s="3"/>
       <c r="J1190" t="n" s="4">
@@ -18016,9 +18065,11 @@
         <v>11</v>
       </c>
       <c r="F1191" s="2"/>
-      <c r="G1191" s="2"/>
+      <c r="G1191" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="H1191" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I1191" t="n" s="4">
         <v>14.99</v>
@@ -18035,17 +18086,17 @@
     </row>
     <row r="1194">
       <c r="B1194" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C1194" t="s" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D1194" s="2"/>
       <c r="E1194" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1194" t="s" s="2">
-        <v>29</v>
+        <v>568</v>
       </c>
       <c r="G1194" s="2"/>
       <c r="H1194" t="s" s="2">
@@ -18053,7 +18104,7 @@
       </c>
       <c r="I1194" s="3"/>
       <c r="J1194" t="n" s="4">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="1195">
@@ -18064,46 +18115,44 @@
         <v>11</v>
       </c>
       <c r="F1195" s="2"/>
-      <c r="G1195" t="s" s="2">
-        <v>568</v>
-      </c>
+      <c r="G1195" s="2"/>
       <c r="H1195" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1195" t="n" s="4">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
       <c r="J1195" s="3"/>
     </row>
     <row r="1196">
       <c r="I1196" t="n" s="5">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
       <c r="J1196" t="n" s="5">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="1198">
       <c r="B1198" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C1198" t="s" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D1198" s="2"/>
       <c r="E1198" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1198" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G1198" s="2"/>
       <c r="H1198" t="s" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I1198" s="3"/>
       <c r="J1198" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="1199">
@@ -18115,30 +18164,30 @@
       </c>
       <c r="F1199" s="2"/>
       <c r="G1199" t="s" s="2">
-        <v>33</v>
+        <v>573</v>
       </c>
       <c r="H1199" t="s" s="2">
         <v>15</v>
       </c>
       <c r="I1199" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
       <c r="J1199" s="3"/>
     </row>
     <row r="1200">
       <c r="I1200" t="n" s="5">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
       <c r="J1200" t="n" s="5">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="1202">
       <c r="B1202" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C1202" t="s" s="2">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D1202" s="2"/>
       <c r="E1202" t="s" s="2">
@@ -18149,7 +18198,7 @@
       </c>
       <c r="G1202" s="2"/>
       <c r="H1202" t="s" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I1202" s="3"/>
       <c r="J1202" t="n" s="4">
@@ -18164,9 +18213,11 @@
         <v>11</v>
       </c>
       <c r="F1203" s="2"/>
-      <c r="G1203" s="2"/>
+      <c r="G1203" t="s" s="2">
+        <v>33</v>
+      </c>
       <c r="H1203" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I1203" t="n" s="4">
         <v>20.0</v>
@@ -18183,29 +18234,25 @@
     </row>
     <row r="1206">
       <c r="B1206" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C1206" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="D1206" t="s" s="2">
-        <v>572</v>
-      </c>
+      <c r="D1206" s="2"/>
       <c r="E1206" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1206" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="G1206" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G1206" s="2"/>
       <c r="H1206" t="s" s="2">
         <v>24</v>
       </c>
       <c r="I1206" s="3"/>
       <c r="J1206" t="n" s="4">
-        <v>1000.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1207">
@@ -18221,39 +18268,43 @@
         <v>13</v>
       </c>
       <c r="I1207" t="n" s="4">
-        <v>1000.0</v>
+        <v>20.0</v>
       </c>
       <c r="J1207" s="3"/>
     </row>
     <row r="1208">
       <c r="I1208" t="n" s="5">
-        <v>1000.0</v>
+        <v>20.0</v>
       </c>
       <c r="J1208" t="n" s="5">
-        <v>1000.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1210">
       <c r="B1210" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C1210" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="D1210" s="2"/>
+      <c r="D1210" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="E1210" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1210" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="G1210" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="G1210" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="H1210" t="s" s="2">
         <v>24</v>
       </c>
       <c r="I1210" s="3"/>
       <c r="J1210" t="n" s="4">
-        <v>20.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="1211">
@@ -18269,41 +18320,39 @@
         <v>13</v>
       </c>
       <c r="I1211" t="n" s="4">
-        <v>20.0</v>
+        <v>1000.0</v>
       </c>
       <c r="J1211" s="3"/>
     </row>
     <row r="1212">
       <c r="I1212" t="n" s="5">
-        <v>20.0</v>
+        <v>1000.0</v>
       </c>
       <c r="J1212" t="n" s="5">
-        <v>20.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="1214">
       <c r="B1214" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C1214" t="s" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D1214" s="2"/>
       <c r="E1214" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1214" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="G1214" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G1214" s="2"/>
       <c r="H1214" t="s" s="2">
         <v>24</v>
       </c>
       <c r="I1214" s="3"/>
       <c r="J1214" t="n" s="4">
-        <v>35.96</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1215">
@@ -18314,46 +18363,46 @@
         <v>11</v>
       </c>
       <c r="F1215" s="2"/>
-      <c r="G1215" t="s" s="2">
-        <v>576</v>
-      </c>
+      <c r="G1215" s="2"/>
       <c r="H1215" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1215" t="n" s="4">
-        <v>35.96</v>
+        <v>20.0</v>
       </c>
       <c r="J1215" s="3"/>
     </row>
     <row r="1216">
       <c r="I1216" t="n" s="5">
-        <v>35.96</v>
+        <v>20.0</v>
       </c>
       <c r="J1216" t="n" s="5">
-        <v>35.96</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1218">
       <c r="B1218" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C1218" t="s" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D1218" s="2"/>
       <c r="E1218" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1218" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="G1218" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="G1218" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="H1218" t="s" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I1218" s="3"/>
       <c r="J1218" t="n" s="4">
-        <v>14.99</v>
+        <v>35.96</v>
       </c>
     </row>
     <row r="1219">
@@ -18365,27 +18414,27 @@
       </c>
       <c r="F1219" s="2"/>
       <c r="G1219" t="s" s="2">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="H1219" t="s" s="2">
         <v>15</v>
       </c>
       <c r="I1219" t="n" s="4">
-        <v>14.99</v>
+        <v>35.96</v>
       </c>
       <c r="J1219" s="3"/>
     </row>
     <row r="1220">
       <c r="I1220" t="n" s="5">
-        <v>14.99</v>
+        <v>35.96</v>
       </c>
       <c r="J1220" t="n" s="5">
-        <v>14.99</v>
+        <v>35.96</v>
       </c>
     </row>
     <row r="1222">
       <c r="B1222" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C1222" t="s" s="2">
         <v>10</v>
@@ -18395,7 +18444,7 @@
         <v>11</v>
       </c>
       <c r="F1222" t="s" s="2">
-        <v>12</v>
+        <v>568</v>
       </c>
       <c r="G1222" s="2"/>
       <c r="H1222" t="s" s="2">
@@ -18403,7 +18452,7 @@
       </c>
       <c r="I1222" s="3"/>
       <c r="J1222" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="1223">
@@ -18415,45 +18464,45 @@
       </c>
       <c r="F1223" s="2"/>
       <c r="G1223" t="s" s="2">
-        <v>14</v>
+        <v>570</v>
       </c>
       <c r="H1223" t="s" s="2">
         <v>15</v>
       </c>
       <c r="I1223" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
       <c r="J1223" s="3"/>
     </row>
     <row r="1224">
       <c r="I1224" t="n" s="5">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
       <c r="J1224" t="n" s="5">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="1226">
       <c r="B1226" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C1226" t="s" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D1226" s="2"/>
       <c r="E1226" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1226" t="s" s="2">
-        <v>432</v>
+        <v>12</v>
       </c>
       <c r="G1226" s="2"/>
       <c r="H1226" t="s" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I1226" s="3"/>
       <c r="J1226" t="n" s="4">
-        <v>19.18</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1227">
@@ -18465,37 +18514,37 @@
       </c>
       <c r="F1227" s="2"/>
       <c r="G1227" t="s" s="2">
-        <v>579</v>
+        <v>14</v>
       </c>
       <c r="H1227" t="s" s="2">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="I1227" t="n" s="4">
-        <v>19.18</v>
+        <v>20.0</v>
       </c>
       <c r="J1227" s="3"/>
     </row>
     <row r="1228">
       <c r="I1228" t="n" s="5">
-        <v>19.18</v>
+        <v>20.0</v>
       </c>
       <c r="J1228" t="n" s="5">
-        <v>19.18</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1230">
       <c r="B1230" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="C1230" t="s" s="2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D1230" s="2"/>
       <c r="E1230" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1230" t="s" s="2">
-        <v>563</v>
+        <v>432</v>
       </c>
       <c r="G1230" s="2"/>
       <c r="H1230" t="s" s="2">
@@ -18503,7 +18552,7 @@
       </c>
       <c r="I1230" s="3"/>
       <c r="J1230" t="n" s="4">
-        <v>14.99</v>
+        <v>19.18</v>
       </c>
     </row>
     <row r="1231">
@@ -18514,36 +18563,38 @@
         <v>11</v>
       </c>
       <c r="F1231" s="2"/>
-      <c r="G1231" s="2"/>
+      <c r="G1231" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="H1231" t="s" s="2">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="I1231" t="n" s="4">
-        <v>14.99</v>
+        <v>19.18</v>
       </c>
       <c r="J1231" s="3"/>
     </row>
     <row r="1232">
       <c r="I1232" t="n" s="5">
-        <v>14.99</v>
+        <v>19.18</v>
       </c>
       <c r="J1232" t="n" s="5">
-        <v>14.99</v>
+        <v>19.18</v>
       </c>
     </row>
     <row r="1234">
       <c r="B1234" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C1234" t="s" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D1234" s="2"/>
       <c r="E1234" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1234" t="s" s="2">
-        <v>29</v>
+        <v>568</v>
       </c>
       <c r="G1234" s="2"/>
       <c r="H1234" t="s" s="2">
@@ -18551,7 +18602,7 @@
       </c>
       <c r="I1234" s="3"/>
       <c r="J1234" t="n" s="4">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="1235">
@@ -18562,46 +18613,44 @@
         <v>11</v>
       </c>
       <c r="F1235" s="2"/>
-      <c r="G1235" t="s" s="2">
-        <v>581</v>
-      </c>
+      <c r="G1235" s="2"/>
       <c r="H1235" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1235" t="n" s="4">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
       <c r="J1235" s="3"/>
     </row>
     <row r="1236">
       <c r="I1236" t="n" s="5">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
       <c r="J1236" t="n" s="5">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="1238">
       <c r="B1238" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C1238" t="s" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D1238" s="2"/>
       <c r="E1238" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1238" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G1238" s="2"/>
       <c r="H1238" t="s" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I1238" s="3"/>
       <c r="J1238" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="1239">
@@ -18613,30 +18662,30 @@
       </c>
       <c r="F1239" s="2"/>
       <c r="G1239" t="s" s="2">
-        <v>33</v>
+        <v>586</v>
       </c>
       <c r="H1239" t="s" s="2">
         <v>15</v>
       </c>
       <c r="I1239" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
       <c r="J1239" s="3"/>
     </row>
     <row r="1240">
       <c r="I1240" t="n" s="5">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
       <c r="J1240" t="n" s="5">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="1242">
       <c r="B1242" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C1242" t="s" s="2">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D1242" s="2"/>
       <c r="E1242" t="s" s="2">
@@ -18647,7 +18696,7 @@
       </c>
       <c r="G1242" s="2"/>
       <c r="H1242" t="s" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I1242" s="3"/>
       <c r="J1242" t="n" s="4">
@@ -18662,9 +18711,11 @@
         <v>11</v>
       </c>
       <c r="F1243" s="2"/>
-      <c r="G1243" s="2"/>
+      <c r="G1243" t="s" s="2">
+        <v>33</v>
+      </c>
       <c r="H1243" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I1243" t="n" s="4">
         <v>20.0</v>
@@ -18681,27 +18732,25 @@
     </row>
     <row r="1246">
       <c r="B1246" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C1246" t="s" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D1246" s="2"/>
       <c r="E1246" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1246" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G1246" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G1246" s="2"/>
       <c r="H1246" t="s" s="2">
         <v>24</v>
       </c>
       <c r="I1246" s="3"/>
       <c r="J1246" t="n" s="4">
-        <v>62.6</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1247">
@@ -18712,46 +18761,46 @@
         <v>11</v>
       </c>
       <c r="F1247" s="2"/>
-      <c r="G1247" t="s" s="2">
-        <v>584</v>
-      </c>
+      <c r="G1247" s="2"/>
       <c r="H1247" t="s" s="2">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="I1247" t="n" s="4">
-        <v>62.6</v>
+        <v>20.0</v>
       </c>
       <c r="J1247" s="3"/>
     </row>
     <row r="1248">
       <c r="I1248" t="n" s="5">
-        <v>62.6</v>
+        <v>20.0</v>
       </c>
       <c r="J1248" t="n" s="5">
-        <v>62.6</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1250">
       <c r="B1250" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C1250" t="s" s="2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D1250" s="2"/>
       <c r="E1250" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1250" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="G1250" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="G1250" t="s" s="2">
+        <v>589</v>
+      </c>
       <c r="H1250" t="s" s="2">
         <v>24</v>
       </c>
       <c r="I1250" s="3"/>
       <c r="J1250" t="n" s="4">
-        <v>20.0</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="1251">
@@ -18762,44 +18811,46 @@
         <v>11</v>
       </c>
       <c r="F1251" s="2"/>
-      <c r="G1251" s="2"/>
+      <c r="G1251" t="s" s="2">
+        <v>589</v>
+      </c>
       <c r="H1251" t="s" s="2">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="I1251" t="n" s="4">
-        <v>20.0</v>
+        <v>62.6</v>
       </c>
       <c r="J1251" s="3"/>
     </row>
     <row r="1252">
       <c r="I1252" t="n" s="5">
-        <v>20.0</v>
+        <v>62.6</v>
       </c>
       <c r="J1252" t="n" s="5">
-        <v>20.0</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="1254">
       <c r="B1254" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C1254" t="s" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D1254" s="2"/>
       <c r="E1254" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1254" t="s" s="2">
-        <v>563</v>
+        <v>12</v>
       </c>
       <c r="G1254" s="2"/>
       <c r="H1254" t="s" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I1254" s="3"/>
       <c r="J1254" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1255">
@@ -18810,28 +18861,26 @@
         <v>11</v>
       </c>
       <c r="F1255" s="2"/>
-      <c r="G1255" t="s" s="2">
-        <v>565</v>
-      </c>
+      <c r="G1255" s="2"/>
       <c r="H1255" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1255" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
       <c r="J1255" s="3"/>
     </row>
     <row r="1256">
       <c r="I1256" t="n" s="5">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
       <c r="J1256" t="n" s="5">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1258">
       <c r="B1258" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C1258" t="s" s="2">
         <v>10</v>
@@ -18841,7 +18890,7 @@
         <v>11</v>
       </c>
       <c r="F1258" t="s" s="2">
-        <v>12</v>
+        <v>568</v>
       </c>
       <c r="G1258" s="2"/>
       <c r="H1258" t="s" s="2">
@@ -18849,7 +18898,7 @@
       </c>
       <c r="I1258" s="3"/>
       <c r="J1258" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="1259">
@@ -18861,45 +18910,45 @@
       </c>
       <c r="F1259" s="2"/>
       <c r="G1259" t="s" s="2">
-        <v>14</v>
+        <v>570</v>
       </c>
       <c r="H1259" t="s" s="2">
         <v>15</v>
       </c>
       <c r="I1259" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
       <c r="J1259" s="3"/>
     </row>
     <row r="1260">
       <c r="I1260" t="n" s="5">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
       <c r="J1260" t="n" s="5">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="1262">
       <c r="B1262" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C1262" t="s" s="2">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D1262" s="2"/>
       <c r="E1262" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1262" t="s" s="2">
-        <v>563</v>
+        <v>12</v>
       </c>
       <c r="G1262" s="2"/>
       <c r="H1262" t="s" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I1262" s="3"/>
       <c r="J1262" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1263">
@@ -18910,36 +18959,38 @@
         <v>11</v>
       </c>
       <c r="F1263" s="2"/>
-      <c r="G1263" s="2"/>
+      <c r="G1263" t="s" s="2">
+        <v>14</v>
+      </c>
       <c r="H1263" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I1263" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
       <c r="J1263" s="3"/>
     </row>
     <row r="1264">
       <c r="I1264" t="n" s="5">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
       <c r="J1264" t="n" s="5">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1266">
       <c r="B1266" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C1266" t="s" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D1266" s="2"/>
       <c r="E1266" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1266" t="s" s="2">
-        <v>29</v>
+        <v>568</v>
       </c>
       <c r="G1266" s="2"/>
       <c r="H1266" t="s" s="2">
@@ -18947,7 +18998,7 @@
       </c>
       <c r="I1266" s="3"/>
       <c r="J1266" t="n" s="4">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="1267">
@@ -18958,38 +19009,36 @@
         <v>11</v>
       </c>
       <c r="F1267" s="2"/>
-      <c r="G1267" t="s" s="2">
-        <v>589</v>
-      </c>
+      <c r="G1267" s="2"/>
       <c r="H1267" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1267" t="n" s="4">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
       <c r="J1267" s="3"/>
     </row>
     <row r="1268">
       <c r="I1268" t="n" s="5">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
       <c r="J1268" t="n" s="5">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="1270">
       <c r="B1270" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C1270" t="s" s="2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D1270" s="2"/>
       <c r="E1270" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1270" t="s" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G1270" s="2"/>
       <c r="H1270" t="s" s="2">
@@ -18997,7 +19046,7 @@
       </c>
       <c r="I1270" s="3"/>
       <c r="J1270" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="1271">
@@ -19008,46 +19057,46 @@
         <v>11</v>
       </c>
       <c r="F1271" s="2"/>
-      <c r="G1271" s="2"/>
+      <c r="G1271" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="H1271" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I1271" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
       <c r="J1271" s="3"/>
     </row>
     <row r="1272">
       <c r="I1272" t="n" s="5">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
       <c r="J1272" t="n" s="5">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="1274">
       <c r="B1274" t="s" s="2">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C1274" t="s" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D1274" s="2"/>
       <c r="E1274" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1274" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G1274" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G1274" s="2"/>
       <c r="H1274" t="s" s="2">
         <v>24</v>
       </c>
       <c r="I1274" s="3"/>
       <c r="J1274" t="n" s="4">
-        <v>63.85</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1275">
@@ -19058,46 +19107,46 @@
         <v>11</v>
       </c>
       <c r="F1275" s="2"/>
-      <c r="G1275" t="s" s="2">
-        <v>591</v>
-      </c>
+      <c r="G1275" s="2"/>
       <c r="H1275" t="s" s="2">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="I1275" t="n" s="4">
-        <v>63.85</v>
+        <v>20.0</v>
       </c>
       <c r="J1275" s="3"/>
     </row>
     <row r="1276">
       <c r="I1276" t="n" s="5">
-        <v>63.85</v>
+        <v>20.0</v>
       </c>
       <c r="J1276" t="n" s="5">
-        <v>63.85</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1278">
       <c r="B1278" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C1278" t="s" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D1278" s="2"/>
       <c r="E1278" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1278" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="G1278" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="G1278" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="H1278" t="s" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I1278" s="3"/>
       <c r="J1278" t="n" s="4">
-        <v>20.0</v>
+        <v>63.85</v>
       </c>
     </row>
     <row r="1279">
@@ -19109,30 +19158,30 @@
       </c>
       <c r="F1279" s="2"/>
       <c r="G1279" t="s" s="2">
-        <v>33</v>
+        <v>596</v>
       </c>
       <c r="H1279" t="s" s="2">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="I1279" t="n" s="4">
-        <v>20.0</v>
+        <v>63.85</v>
       </c>
       <c r="J1279" s="3"/>
     </row>
     <row r="1280">
       <c r="I1280" t="n" s="5">
-        <v>20.0</v>
+        <v>63.85</v>
       </c>
       <c r="J1280" t="n" s="5">
-        <v>20.0</v>
+        <v>63.85</v>
       </c>
     </row>
     <row r="1282">
       <c r="B1282" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C1282" t="s" s="2">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D1282" s="2"/>
       <c r="E1282" t="s" s="2">
@@ -19143,7 +19192,7 @@
       </c>
       <c r="G1282" s="2"/>
       <c r="H1282" t="s" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I1282" s="3"/>
       <c r="J1282" t="n" s="4">
@@ -19158,9 +19207,11 @@
         <v>11</v>
       </c>
       <c r="F1283" s="2"/>
-      <c r="G1283" s="2"/>
+      <c r="G1283" t="s" s="2">
+        <v>33</v>
+      </c>
       <c r="H1283" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I1283" t="n" s="4">
         <v>20.0</v>
@@ -19177,27 +19228,25 @@
     </row>
     <row r="1286">
       <c r="B1286" t="s" s="2">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C1286" t="s" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D1286" s="2"/>
       <c r="E1286" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1286" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="G1286" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G1286" s="2"/>
       <c r="H1286" t="s" s="2">
         <v>24</v>
       </c>
       <c r="I1286" s="3"/>
       <c r="J1286" t="n" s="4">
-        <v>17.98</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1287">
@@ -19208,46 +19257,46 @@
         <v>11</v>
       </c>
       <c r="F1287" s="2"/>
-      <c r="G1287" t="s" s="2">
-        <v>595</v>
-      </c>
+      <c r="G1287" s="2"/>
       <c r="H1287" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1287" t="n" s="4">
-        <v>17.98</v>
+        <v>20.0</v>
       </c>
       <c r="J1287" s="3"/>
     </row>
     <row r="1288">
       <c r="I1288" t="n" s="5">
-        <v>17.98</v>
+        <v>20.0</v>
       </c>
       <c r="J1288" t="n" s="5">
-        <v>17.98</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1290">
       <c r="B1290" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C1290" t="s" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D1290" s="2"/>
       <c r="E1290" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1290" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="G1290" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="G1290" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="H1290" t="s" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I1290" s="3"/>
       <c r="J1290" t="n" s="4">
-        <v>14.99</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="1291">
@@ -19259,27 +19308,27 @@
       </c>
       <c r="F1291" s="2"/>
       <c r="G1291" t="s" s="2">
-        <v>565</v>
+        <v>600</v>
       </c>
       <c r="H1291" t="s" s="2">
         <v>15</v>
       </c>
       <c r="I1291" t="n" s="4">
-        <v>14.99</v>
+        <v>17.98</v>
       </c>
       <c r="J1291" s="3"/>
     </row>
     <row r="1292">
       <c r="I1292" t="n" s="5">
-        <v>14.99</v>
+        <v>17.98</v>
       </c>
       <c r="J1292" t="n" s="5">
-        <v>14.99</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="1294">
       <c r="B1294" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C1294" t="s" s="2">
         <v>10</v>
@@ -19289,7 +19338,7 @@
         <v>11</v>
       </c>
       <c r="F1294" t="s" s="2">
-        <v>12</v>
+        <v>568</v>
       </c>
       <c r="G1294" s="2"/>
       <c r="H1294" t="s" s="2">
@@ -19297,7 +19346,7 @@
       </c>
       <c r="I1294" s="3"/>
       <c r="J1294" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="1295">
@@ -19309,27 +19358,27 @@
       </c>
       <c r="F1295" s="2"/>
       <c r="G1295" t="s" s="2">
-        <v>14</v>
+        <v>570</v>
       </c>
       <c r="H1295" t="s" s="2">
         <v>15</v>
       </c>
       <c r="I1295" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
       <c r="J1295" s="3"/>
     </row>
     <row r="1296">
       <c r="I1296" t="n" s="5">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
       <c r="J1296" t="n" s="5">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="1298">
       <c r="B1298" t="s" s="2">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C1298" t="s" s="2">
         <v>10</v>
@@ -19339,7 +19388,7 @@
         <v>11</v>
       </c>
       <c r="F1298" t="s" s="2">
-        <v>598</v>
+        <v>12</v>
       </c>
       <c r="G1298" s="2"/>
       <c r="H1298" t="s" s="2">
@@ -19347,7 +19396,7 @@
       </c>
       <c r="I1298" s="3"/>
       <c r="J1298" t="n" s="4">
-        <v>59.85</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1299">
@@ -19359,27 +19408,27 @@
       </c>
       <c r="F1299" s="2"/>
       <c r="G1299" t="s" s="2">
-        <v>599</v>
+        <v>14</v>
       </c>
       <c r="H1299" t="s" s="2">
         <v>15</v>
       </c>
       <c r="I1299" t="n" s="4">
-        <v>59.85</v>
+        <v>20.0</v>
       </c>
       <c r="J1299" s="3"/>
     </row>
     <row r="1300">
       <c r="I1300" t="n" s="5">
-        <v>59.85</v>
+        <v>20.0</v>
       </c>
       <c r="J1300" t="n" s="5">
-        <v>59.85</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1302">
       <c r="B1302" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C1302" t="s" s="2">
         <v>10</v>
@@ -19389,7 +19438,7 @@
         <v>11</v>
       </c>
       <c r="F1302" t="s" s="2">
-        <v>32</v>
+        <v>603</v>
       </c>
       <c r="G1302" s="2"/>
       <c r="H1302" t="s" s="2">
@@ -19397,7 +19446,7 @@
       </c>
       <c r="I1302" s="3"/>
       <c r="J1302" t="n" s="4">
-        <v>20.0</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="1303">
@@ -19409,47 +19458,45 @@
       </c>
       <c r="F1303" s="2"/>
       <c r="G1303" t="s" s="2">
-        <v>33</v>
+        <v>604</v>
       </c>
       <c r="H1303" t="s" s="2">
         <v>15</v>
       </c>
       <c r="I1303" t="n" s="4">
-        <v>20.0</v>
+        <v>59.85</v>
       </c>
       <c r="J1303" s="3"/>
     </row>
     <row r="1304">
       <c r="I1304" t="n" s="5">
-        <v>20.0</v>
+        <v>59.85</v>
       </c>
       <c r="J1304" t="n" s="5">
-        <v>20.0</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="1306">
       <c r="B1306" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C1306" t="s" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D1306" s="2"/>
       <c r="E1306" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1306" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="G1306" t="s" s="2">
-        <v>601</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G1306" s="2"/>
       <c r="H1306" t="s" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I1306" s="3"/>
       <c r="J1306" t="n" s="4">
-        <v>59.85</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1307">
@@ -19461,27 +19508,27 @@
       </c>
       <c r="F1307" s="2"/>
       <c r="G1307" t="s" s="2">
-        <v>601</v>
+        <v>33</v>
       </c>
       <c r="H1307" t="s" s="2">
         <v>15</v>
       </c>
       <c r="I1307" t="n" s="4">
-        <v>59.85</v>
+        <v>20.0</v>
       </c>
       <c r="J1307" s="3"/>
     </row>
     <row r="1308">
       <c r="I1308" t="n" s="5">
-        <v>59.85</v>
+        <v>20.0</v>
       </c>
       <c r="J1308" t="n" s="5">
-        <v>59.85</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1310">
       <c r="B1310" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C1310" t="s" s="2">
         <v>35</v>
@@ -19491,15 +19538,17 @@
         <v>11</v>
       </c>
       <c r="F1310" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="G1310" s="2"/>
+        <v>603</v>
+      </c>
+      <c r="G1310" t="s" s="2">
+        <v>606</v>
+      </c>
       <c r="H1310" t="s" s="2">
         <v>24</v>
       </c>
       <c r="I1310" s="3"/>
       <c r="J1310" t="n" s="4">
-        <v>14.99</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="1311">
@@ -19515,41 +19564,39 @@
         <v>13</v>
       </c>
       <c r="I1311" t="n" s="4">
-        <v>14.99</v>
+        <v>59.85</v>
       </c>
       <c r="J1311" s="3"/>
     </row>
     <row r="1312">
       <c r="I1312" t="n" s="5">
-        <v>14.99</v>
+        <v>59.85</v>
       </c>
       <c r="J1312" t="n" s="5">
-        <v>14.99</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="1314">
       <c r="B1314" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C1314" t="s" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D1314" s="2"/>
       <c r="E1314" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1314" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="G1314" t="s" s="2">
-        <v>602</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="G1314" s="2"/>
       <c r="H1314" t="s" s="2">
         <v>24</v>
       </c>
       <c r="I1314" s="3"/>
       <c r="J1314" t="n" s="4">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="1315">
@@ -19560,46 +19607,46 @@
         <v>11</v>
       </c>
       <c r="F1315" s="2"/>
-      <c r="G1315" t="s" s="2">
-        <v>602</v>
-      </c>
+      <c r="G1315" s="2"/>
       <c r="H1315" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1315" t="n" s="4">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
       <c r="J1315" s="3"/>
     </row>
     <row r="1316">
       <c r="I1316" t="n" s="5">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
       <c r="J1316" t="n" s="5">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="1318">
       <c r="B1318" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C1318" t="s" s="2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D1318" s="2"/>
       <c r="E1318" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1318" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="G1318" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="G1318" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="H1318" t="s" s="2">
         <v>24</v>
       </c>
       <c r="I1318" s="3"/>
       <c r="J1318" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="1319">
@@ -19610,26 +19657,28 @@
         <v>11</v>
       </c>
       <c r="F1319" s="2"/>
-      <c r="G1319" s="2"/>
+      <c r="G1319" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="H1319" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I1319" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
       <c r="J1319" s="3"/>
     </row>
     <row r="1320">
       <c r="I1320" t="n" s="5">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
       <c r="J1320" t="n" s="5">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="1322">
       <c r="B1322" t="s" s="2">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C1322" t="s" s="2">
         <v>35</v>
@@ -19639,7 +19688,7 @@
         <v>11</v>
       </c>
       <c r="F1322" t="s" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G1322" s="2"/>
       <c r="H1322" t="s" s="2">
@@ -19677,27 +19726,25 @@
     </row>
     <row r="1326">
       <c r="B1326" t="s" s="2">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C1326" t="s" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D1326" s="2"/>
       <c r="E1326" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F1326" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G1326" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G1326" s="2"/>
       <c r="H1326" t="s" s="2">
         <v>24</v>
       </c>
       <c r="I1326" s="3"/>
       <c r="J1326" t="n" s="4">
-        <v>57.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1327">
@@ -19708,28 +19755,26 @@
         <v>11</v>
       </c>
       <c r="F1327" s="2"/>
-      <c r="G1327" t="s" s="2">
-        <v>591</v>
-      </c>
+      <c r="G1327" s="2"/>
       <c r="H1327" t="s" s="2">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="I1327" t="n" s="4">
-        <v>57.0</v>
+        <v>20.0</v>
       </c>
       <c r="J1327" s="3"/>
     </row>
     <row r="1328">
       <c r="I1328" t="n" s="5">
-        <v>57.0</v>
+        <v>20.0</v>
       </c>
       <c r="J1328" t="n" s="5">
-        <v>57.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1330">
       <c r="B1330" t="s" s="2">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C1330" t="s" s="2">
         <v>25</v>
@@ -19739,17 +19784,17 @@
         <v>11</v>
       </c>
       <c r="F1330" t="s" s="2">
-        <v>538</v>
+        <v>83</v>
       </c>
       <c r="G1330" t="s" s="2">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="H1330" t="s" s="2">
         <v>24</v>
       </c>
       <c r="I1330" s="3"/>
       <c r="J1330" t="n" s="4">
-        <v>98.94</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="1331">
@@ -19761,27 +19806,27 @@
       </c>
       <c r="F1331" s="2"/>
       <c r="G1331" t="s" s="2">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="H1331" t="s" s="2">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="I1331" t="n" s="4">
-        <v>98.94</v>
+        <v>57.0</v>
       </c>
       <c r="J1331" s="3"/>
     </row>
     <row r="1332">
       <c r="I1332" t="n" s="5">
-        <v>98.94</v>
+        <v>57.0</v>
       </c>
       <c r="J1332" t="n" s="5">
-        <v>98.94</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="1334">
       <c r="B1334" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C1334" t="s" s="2">
         <v>25</v>
@@ -19791,17 +19836,17 @@
         <v>11</v>
       </c>
       <c r="F1334" t="s" s="2">
-        <v>198</v>
+        <v>538</v>
       </c>
       <c r="G1334" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="H1334" t="s" s="2">
         <v>24</v>
       </c>
       <c r="I1334" s="3"/>
       <c r="J1334" t="n" s="4">
-        <v>17.98</v>
+        <v>98.94</v>
       </c>
     </row>
     <row r="1335">
@@ -19813,52 +19858,596 @@
       </c>
       <c r="F1335" s="2"/>
       <c r="G1335" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="H1335" t="s" s="2">
         <v>15</v>
       </c>
       <c r="I1335" t="n" s="4">
-        <v>17.98</v>
+        <v>98.94</v>
       </c>
       <c r="J1335" s="3"/>
     </row>
     <row r="1336">
       <c r="I1336" t="n" s="5">
+        <v>98.94</v>
+      </c>
+      <c r="J1336" t="n" s="5">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="B1338" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="C1338" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1338" s="2"/>
+      <c r="E1338" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1338" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="G1338" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="H1338" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1338" s="3"/>
+      <c r="J1338" t="n" s="4">
         <v>17.98</v>
       </c>
-      <c r="J1336" t="n" s="5">
+    </row>
+    <row r="1339">
+      <c r="B1339" s="2"/>
+      <c r="C1339" s="2"/>
+      <c r="D1339" s="2"/>
+      <c r="E1339" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1339" s="2"/>
+      <c r="G1339" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="H1339" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1339" t="n" s="4">
         <v>17.98</v>
       </c>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="s" s="6">
-        <v>610</v>
-      </c>
-      <c r="I1338" t="n" s="5">
-        <v>104808.2</v>
-      </c>
-      <c r="J1338" t="n" s="5">
-        <v>104808.2</v>
-      </c>
-    </row>
-    <row r="1341">
-      <c r="A1341" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="B1341"/>
-      <c r="C1341"/>
-      <c r="D1341"/>
-      <c r="E1341"/>
-      <c r="F1341"/>
-      <c r="G1341"/>
-      <c r="H1341"/>
-      <c r="I1341"/>
-      <c r="J1341"/>
+      <c r="J1339" s="3"/>
+    </row>
+    <row r="1340">
+      <c r="I1340" t="n" s="5">
+        <v>17.98</v>
+      </c>
+      <c r="J1340" t="n" s="5">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="B1342" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C1342" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1342" s="2"/>
+      <c r="E1342" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1342" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="G1342" s="2"/>
+      <c r="H1342" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1342" s="3"/>
+      <c r="J1342" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="B1343" s="2"/>
+      <c r="C1343" s="2"/>
+      <c r="D1343" s="2"/>
+      <c r="E1343" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1343" s="2"/>
+      <c r="G1343" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="H1343" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1343" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J1343" s="3"/>
+    </row>
+    <row r="1344">
+      <c r="I1344" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J1344" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="B1346" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C1346" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1346" s="2"/>
+      <c r="E1346" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1346" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1346" s="2"/>
+      <c r="H1346" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1346" s="3"/>
+      <c r="J1346" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="B1347" s="2"/>
+      <c r="C1347" s="2"/>
+      <c r="D1347" s="2"/>
+      <c r="E1347" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1347" s="2"/>
+      <c r="G1347" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1347" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1347" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1347" s="3"/>
+    </row>
+    <row r="1348">
+      <c r="I1348" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1348" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="B1350" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="C1350" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1350" s="2"/>
+      <c r="E1350" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1350" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="G1350" s="2"/>
+      <c r="H1350" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1350" s="3"/>
+      <c r="J1350" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="B1351" s="2"/>
+      <c r="C1351" s="2"/>
+      <c r="D1351" s="2"/>
+      <c r="E1351" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1351" s="2"/>
+      <c r="G1351" s="2"/>
+      <c r="H1351" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1351" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J1351" s="3"/>
+    </row>
+    <row r="1352">
+      <c r="I1352" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J1352" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="B1354" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C1354" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1354" s="2"/>
+      <c r="E1354" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1354" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G1354" s="2"/>
+      <c r="H1354" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1354" s="3"/>
+      <c r="J1354" t="n" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="B1355" s="2"/>
+      <c r="C1355" s="2"/>
+      <c r="D1355" s="2"/>
+      <c r="E1355" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1355" s="2"/>
+      <c r="G1355" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="H1355" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1355" t="n" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J1355" s="3"/>
+    </row>
+    <row r="1356">
+      <c r="I1356" t="n" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J1356" t="n" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="B1358" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C1358" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1358" s="2"/>
+      <c r="E1358" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1358" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1358" s="2"/>
+      <c r="H1358" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1358" s="3"/>
+      <c r="J1358" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="B1359" s="2"/>
+      <c r="C1359" s="2"/>
+      <c r="D1359" s="2"/>
+      <c r="E1359" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1359" s="2"/>
+      <c r="G1359" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H1359" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1359" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1359" s="3"/>
+    </row>
+    <row r="1360">
+      <c r="I1360" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1360" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="B1362" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C1362" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1362" s="2"/>
+      <c r="E1362" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1362" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G1362" s="2"/>
+      <c r="H1362" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1362" s="3"/>
+      <c r="J1362" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="B1363" s="2"/>
+      <c r="C1363" s="2"/>
+      <c r="D1363" s="2"/>
+      <c r="E1363" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1363" s="2"/>
+      <c r="G1363" s="2"/>
+      <c r="H1363" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1363" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1363" s="3"/>
+    </row>
+    <row r="1364">
+      <c r="I1364" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1364" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="B1366" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="C1366" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1366" s="2"/>
+      <c r="E1366" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1366" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G1366" s="2"/>
+      <c r="H1366" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1366" s="3"/>
+      <c r="J1366" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="B1367" s="2"/>
+      <c r="C1367" s="2"/>
+      <c r="D1367" s="2"/>
+      <c r="E1367" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1367" s="2"/>
+      <c r="G1367" s="2"/>
+      <c r="H1367" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1367" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J1367" s="3"/>
+    </row>
+    <row r="1368">
+      <c r="I1368" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J1368" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="B1370" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C1370" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1370" t="n" s="2">
+        <v>1.7180136E7</v>
+      </c>
+      <c r="E1370" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1370" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="G1370" s="2"/>
+      <c r="H1370" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1370" s="3"/>
+      <c r="J1370" t="n" s="4">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="B1371" s="2"/>
+      <c r="C1371" s="2"/>
+      <c r="D1371" s="2"/>
+      <c r="E1371" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1371" s="2"/>
+      <c r="G1371" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="H1371" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1371" t="n" s="4">
+        <v>17.98</v>
+      </c>
+      <c r="J1371" s="3"/>
+    </row>
+    <row r="1372">
+      <c r="I1372" t="n" s="5">
+        <v>17.98</v>
+      </c>
+      <c r="J1372" t="n" s="5">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="B1374" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="C1374" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1374" s="2"/>
+      <c r="E1374" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1374" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="G1374" s="2"/>
+      <c r="H1374" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1374" s="3"/>
+      <c r="J1374" t="n" s="4">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="B1375" s="2"/>
+      <c r="C1375" s="2"/>
+      <c r="D1375" s="2"/>
+      <c r="E1375" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1375" s="2"/>
+      <c r="G1375" s="2"/>
+      <c r="H1375" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1375" t="n" s="4">
+        <v>17.98</v>
+      </c>
+      <c r="J1375" s="3"/>
+    </row>
+    <row r="1376">
+      <c r="I1376" t="n" s="5">
+        <v>17.98</v>
+      </c>
+      <c r="J1376" t="n" s="5">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="B1378" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C1378" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1378" s="2"/>
+      <c r="E1378" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1378" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="G1378" s="2"/>
+      <c r="H1378" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I1378" s="3"/>
+      <c r="J1378" t="n" s="4">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="B1379" s="2"/>
+      <c r="C1379" s="2"/>
+      <c r="D1379" s="2"/>
+      <c r="E1379" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1379" s="2"/>
+      <c r="G1379" s="2"/>
+      <c r="H1379" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1379" t="n" s="4">
+        <v>300.0</v>
+      </c>
+      <c r="J1379" s="3"/>
+    </row>
+    <row r="1380">
+      <c r="I1380" t="n" s="5">
+        <v>300.0</v>
+      </c>
+      <c r="J1380" t="n" s="5">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="s" s="6">
+        <v>625</v>
+      </c>
+      <c r="I1382" t="n" s="5">
+        <v>105554.74</v>
+      </c>
+      <c r="J1382" t="n" s="5">
+        <v>105554.74</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="B1385"/>
+      <c r="C1385"/>
+      <c r="D1385"/>
+      <c r="E1385"/>
+      <c r="F1385"/>
+      <c r="G1385"/>
+      <c r="H1385"/>
+      <c r="I1385"/>
+      <c r="J1385"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1341:J1341"/>
+    <mergeCell ref="A1385:J1385"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
